--- a/Excel/InfiniteDropConfig.xlsx
+++ b/Excel/InfiniteDropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>Id</t>
   </si>
@@ -56,97 +56,79 @@
     <t>Max</t>
   </si>
   <si>
-    <t>Des</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
+    <t>220000</t>
+  </si>
+  <si>
     <t>副本劵</t>
   </si>
   <si>
-    <t>生命基础</t>
+    <t>220001</t>
   </si>
   <si>
     <t>Boss劵</t>
   </si>
   <si>
-    <t>防御基础</t>
+    <t>220002</t>
   </si>
   <si>
     <t>四格碎片</t>
   </si>
   <si>
-    <t>物攻基础</t>
+    <t>220003</t>
   </si>
   <si>
     <t>图鉴碎片</t>
   </si>
   <si>
-    <t>魔法基础</t>
-  </si>
-  <si>
-    <t>一期图鉴</t>
-  </si>
-  <si>
-    <t>道术基础</t>
-  </si>
-  <si>
-    <t>二期图鉴</t>
-  </si>
-  <si>
-    <t>生命比例</t>
+    <t>2001</t>
   </si>
   <si>
     <t>橙色图鉴</t>
   </si>
   <si>
-    <t>防御比例</t>
+    <t>2000</t>
   </si>
   <si>
     <t>沙城图鉴</t>
   </si>
   <si>
-    <t>攻击比例</t>
+    <t>2006</t>
   </si>
   <si>
     <t>红色图鉴</t>
   </si>
   <si>
-    <t>物攻加成</t>
-  </si>
-  <si>
     <t>一期时装</t>
   </si>
   <si>
-    <t>魔法加成</t>
-  </si>
-  <si>
     <t>二期时装</t>
   </si>
   <si>
-    <t>道术加成</t>
+    <t>#</t>
+  </si>
+  <si>
+    <t>1500000</t>
   </si>
   <si>
     <t>神器</t>
   </si>
   <si>
-    <t>物伤比例</t>
+    <t>220012</t>
   </si>
   <si>
     <t>10介技能</t>
   </si>
   <si>
-    <t>法伤比例</t>
+    <t>220013</t>
   </si>
   <si>
     <t>高级书页</t>
-  </si>
-  <si>
-    <t>道伤比例</t>
   </si>
 </sst>
 </file>
@@ -159,7 +141,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +159,12 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -649,142 +637,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1104,10 +1095,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:L19"/>
+  <dimension ref="A3:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1116,11 +1107,10 @@
     <col min="5" max="5" width="12.625" style="1" customWidth="1"/>
     <col min="6" max="9" width="12.25" style="1" customWidth="1"/>
     <col min="10" max="11" width="11.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="26.75" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:12">
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1148,11 +1138,8 @@
       <c r="K3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:12">
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1180,60 +1167,54 @@
       <c r="K4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="2" t="s">
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2" t="s">
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="1">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
@@ -1244,30 +1225,27 @@
       <c r="K6" s="1">
         <v>1</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:12">
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="1">
-        <v>2</v>
+      <c r="D7" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="1">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" ref="G7:G27" si="0">H6+1</f>
-        <v>10001</v>
+        <f>H6+1</f>
+        <v>11</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" ref="H7:H27" si="1">H6+F7</f>
-        <v>20000</v>
+        <f>H6+F7</f>
+        <v>20</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
@@ -1278,16 +1256,13 @@
       <c r="K7" s="1">
         <v>1</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:12">
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="1">
-        <v>3</v>
+      <c r="D8" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>16</v>
@@ -1296,12 +1271,12 @@
         <v>10000</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="0"/>
-        <v>20001</v>
+        <f>H7+1</f>
+        <v>21</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="1"/>
-        <v>30000</v>
+        <f>H7+F8</f>
+        <v>10020</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -1312,16 +1287,13 @@
       <c r="K8" s="1">
         <v>1</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:12">
+    <row r="9" s="1" customFormat="1" ht="20" customHeight="1" spans="3:11">
       <c r="C9" s="1">
         <v>4</v>
       </c>
-      <c r="D9" s="1">
-        <v>4</v>
+      <c r="D9" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>18</v>
@@ -1330,12 +1302,12 @@
         <v>10000</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="0"/>
-        <v>30001</v>
+        <f>H8+1</f>
+        <v>10021</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="1"/>
-        <v>40000</v>
+        <f>H8+F9</f>
+        <v>20020</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
@@ -1346,98 +1318,27 @@
       <c r="K9" s="1">
         <v>1</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="10" customHeight="1" spans="3:12">
-      <c r="C10" s="1">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1">
-        <v>5</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G10" s="1">
-        <f t="shared" si="0"/>
-        <v>40001</v>
-      </c>
-      <c r="H10" s="1">
-        <f t="shared" si="1"/>
-        <v>50000</v>
-      </c>
-      <c r="I10" s="1">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="K10" s="1">
-        <v>1</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:12">
-      <c r="C11" s="1">
-        <v>6</v>
-      </c>
-      <c r="D11" s="1">
-        <v>6</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="1">
-        <v>100</v>
-      </c>
-      <c r="G11" s="1">
-        <f t="shared" si="0"/>
-        <v>50001</v>
-      </c>
-      <c r="H11" s="1">
-        <f t="shared" si="1"/>
-        <v>50100</v>
-      </c>
-      <c r="I11" s="1">
-        <v>500</v>
-      </c>
-      <c r="J11" s="1">
-        <v>10000</v>
-      </c>
-      <c r="K11" s="1">
-        <v>1</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" customHeight="1" spans="3:12">
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C12" s="1">
         <v>7</v>
       </c>
-      <c r="D12" s="1">
-        <v>7</v>
+      <c r="D12" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F12" s="1">
         <v>100</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="0"/>
-        <v>50101</v>
+        <f>H11+1</f>
+        <v>1</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="1"/>
-        <v>50200</v>
+        <f>H11+F12</f>
+        <v>100</v>
       </c>
       <c r="I12" s="1">
         <v>500</v>
@@ -1448,30 +1349,27 @@
       <c r="K12" s="1">
         <v>1</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="13" s="1" customFormat="1" customHeight="1" spans="3:12">
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C13" s="1">
         <v>8</v>
       </c>
-      <c r="D13" s="1">
-        <v>8</v>
+      <c r="D13" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F13" s="1">
         <v>100</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="0"/>
-        <v>50201</v>
+        <f>H12+1</f>
+        <v>101</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="1"/>
-        <v>50300</v>
+        <f>H12+F13</f>
+        <v>200</v>
       </c>
       <c r="I13" s="1">
         <v>500</v>
@@ -1482,30 +1380,27 @@
       <c r="K13" s="1">
         <v>1</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="14" customHeight="1" spans="3:12">
+    <row r="14" customHeight="1" spans="3:11">
       <c r="C14" s="1">
         <v>9</v>
       </c>
-      <c r="D14" s="1">
-        <v>9</v>
+      <c r="D14" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F14" s="1">
         <v>100</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="0"/>
-        <v>50301</v>
+        <f>H13+1</f>
+        <v>201</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="1"/>
-        <v>50400</v>
+        <f>H13+F14</f>
+        <v>300</v>
       </c>
       <c r="I14" s="1">
         <v>500</v>
@@ -1516,30 +1411,27 @@
       <c r="K14" s="1">
         <v>1</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="15" customHeight="1" spans="3:12">
+    <row r="15" customHeight="1" spans="3:11">
       <c r="C15" s="1">
         <v>10</v>
       </c>
       <c r="D15" s="1">
-        <v>10</v>
+        <v>3001</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F15" s="1">
         <v>100</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="0"/>
-        <v>50401</v>
+        <f>H14+1</f>
+        <v>301</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="1"/>
-        <v>50500</v>
+        <f>H14+F15</f>
+        <v>400</v>
       </c>
       <c r="I15" s="1">
         <v>500</v>
@@ -1550,30 +1442,27 @@
       <c r="K15" s="1">
         <v>1</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="16" customHeight="1" spans="3:12">
+    <row r="16" customHeight="1" spans="3:11">
       <c r="C16" s="1">
         <v>11</v>
       </c>
       <c r="D16" s="1">
-        <v>11</v>
+        <v>3002</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F16" s="1">
         <v>100</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="0"/>
-        <v>50501</v>
+        <f>H15+1</f>
+        <v>401</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="1"/>
-        <v>50600</v>
+        <f>H15+F16</f>
+        <v>500</v>
       </c>
       <c r="I16" s="1">
         <v>500</v>
@@ -1584,30 +1473,33 @@
       <c r="K16" s="1">
         <v>1</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>33</v>
-      </c>
     </row>
-    <row r="17" customHeight="1" spans="3:12">
+    <row r="17" customHeight="1" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C17" s="1">
         <v>12</v>
       </c>
-      <c r="D17" s="1">
-        <v>12</v>
+      <c r="D17" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F17" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="0"/>
-        <v>50601</v>
+        <f>H16+1</f>
+        <v>501</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="1"/>
-        <v>50610</v>
+        <f>H16+F17</f>
+        <v>600</v>
       </c>
       <c r="I17" s="1">
         <v>1</v>
@@ -1618,30 +1510,27 @@
       <c r="K17" s="1">
         <v>1</v>
       </c>
-      <c r="L17" s="1" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="18" customHeight="1" spans="3:12">
+    <row r="18" customHeight="1" spans="3:11">
       <c r="C18" s="1">
         <v>13</v>
       </c>
-      <c r="D18" s="1">
-        <v>13</v>
+      <c r="D18" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F18" s="1">
         <v>10</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="0"/>
-        <v>50611</v>
+        <f>H17+1</f>
+        <v>601</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="1"/>
-        <v>50620</v>
+        <f>H17+F18</f>
+        <v>610</v>
       </c>
       <c r="I18" s="1">
         <v>1</v>
@@ -1652,30 +1541,27 @@
       <c r="K18" s="1">
         <v>1</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="19" customHeight="1" spans="3:12">
+    <row r="19" customHeight="1" spans="3:11">
       <c r="C19" s="1">
         <v>14</v>
       </c>
-      <c r="D19" s="1">
-        <v>14</v>
+      <c r="D19" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F19" s="1">
         <v>10</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="0"/>
-        <v>50621</v>
+        <f>H18+1</f>
+        <v>611</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="1"/>
-        <v>50630</v>
+        <f>H18+F19</f>
+        <v>620</v>
       </c>
       <c r="I19" s="1">
         <v>1</v>
@@ -1685,9 +1571,6 @@
       </c>
       <c r="K19" s="1">
         <v>1</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/InfiniteDropConfig.xlsx
+++ b/Excel/InfiniteDropConfig.xlsx
@@ -1098,7 +1098,7 @@
   <dimension ref="A3:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1223,7 +1223,7 @@
         <v>1000000</v>
       </c>
       <c r="K6" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="3:11">
@@ -1254,7 +1254,7 @@
         <v>1000000</v>
       </c>
       <c r="K7" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="3:11">
@@ -1285,7 +1285,7 @@
         <v>1000000</v>
       </c>
       <c r="K8" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="20" customHeight="1" spans="3:11">
@@ -1316,7 +1316,7 @@
         <v>1000000</v>
       </c>
       <c r="K9" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" customHeight="1" spans="3:11">

--- a/Excel/InfiniteDropConfig.xlsx
+++ b/Excel/InfiniteDropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -26,8 +26,45 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>admin</author>
+  </authors>
+  <commentList>
+    <comment ref="I3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+此数值的倍数层，才可能掉
+1副本劵，每层都可能掉
+100神器，百层的整数倍都可能掉</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
+  <si>
+    <t>#</t>
+  </si>
   <si>
     <t>Id</t>
   </si>
@@ -41,18 +78,15 @@
     <t>Rate</t>
   </si>
   <si>
-    <t>StartRate</t>
-  </si>
-  <si>
-    <t>EndRate</t>
-  </si>
-  <si>
     <t>StartLevel</t>
   </si>
   <si>
     <t>EndLevel</t>
   </si>
   <si>
+    <t>RateLevel</t>
+  </si>
+  <si>
     <t>Max</t>
   </si>
   <si>
@@ -68,18 +102,27 @@
     <t>副本劵</t>
   </si>
   <si>
+    <t>每百层大概50个</t>
+  </si>
+  <si>
     <t>220001</t>
   </si>
   <si>
     <t>Boss劵</t>
   </si>
   <si>
+    <t>每百层大概5个</t>
+  </si>
+  <si>
     <t>220002</t>
   </si>
   <si>
     <t>四格碎片</t>
   </si>
   <si>
+    <t>每百层大概10个</t>
+  </si>
+  <si>
     <t>220003</t>
   </si>
   <si>
@@ -104,31 +147,70 @@
     <t>红色图鉴</t>
   </si>
   <si>
+    <t>每百层大概2个</t>
+  </si>
+  <si>
     <t>一期时装</t>
   </si>
   <si>
     <t>二期时装</t>
   </si>
   <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>1500000</t>
-  </si>
-  <si>
-    <t>神器</t>
-  </si>
-  <si>
     <t>220012</t>
   </si>
   <si>
     <t>10介技能</t>
   </si>
   <si>
+    <t>250层,1/3掉落</t>
+  </si>
+  <si>
     <t>220013</t>
   </si>
   <si>
     <t>高级书页</t>
+  </si>
+  <si>
+    <t>BOSS杀手</t>
+  </si>
+  <si>
+    <t>百层的整数倍，大概率掉落</t>
+  </si>
+  <si>
+    <t>BOSS契约</t>
+  </si>
+  <si>
+    <t>命运沙漏</t>
+  </si>
+  <si>
+    <t>副本契约</t>
+  </si>
+  <si>
+    <t>卖身契</t>
+  </si>
+  <si>
+    <t>万界图</t>
+  </si>
+  <si>
+    <t>破限本源</t>
+  </si>
+  <si>
+    <t>魔法书</t>
+  </si>
+  <si>
+    <t>圣者遗物</t>
+  </si>
+  <si>
+    <t>无限之魂</t>
+  </si>
+  <si>
+    <t>昊天神锤</t>
+  </si>
+  <si>
+    <t>天外神石</t>
+  </si>
+  <si>
+    <t>金蛟剪</t>
   </si>
 </sst>
 </file>
@@ -141,7 +223,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +251,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -311,6 +400,17 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -637,143 +737,144 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
@@ -1095,80 +1196,92 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:K19"/>
+  <dimension ref="C1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="9" style="1"/>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="9.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.625" style="1" customWidth="1"/>
-    <col min="6" max="9" width="12.25" style="1" customWidth="1"/>
-    <col min="10" max="11" width="11.125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="12.25" style="1" customWidth="1"/>
+    <col min="8" max="10" width="11.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:11">
+    <row r="1" customHeight="1" spans="11:12">
+      <c r="K1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="11:12">
+      <c r="K2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C3" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:11">
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1193,384 +1306,743 @@
       <c r="J5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:11">
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
       </c>
       <c r="J6" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="K6" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="K6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>13</v>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" s="1">
         <v>10</v>
       </c>
       <c r="G7" s="1">
-        <f>H6+1</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1">
-        <f>H6+F7</f>
+        <v>10000</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
         <v>20</v>
       </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="K7" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="K7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>15</v>
+      <c r="D8" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F8" s="1">
-        <v>10000</v>
+        <v>20</v>
       </c>
       <c r="G8" s="1">
-        <f>H7+1</f>
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="H8" s="1">
-        <f>H7+F8</f>
-        <v>10020</v>
+        <v>10000</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
       </c>
       <c r="J8" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="K8" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="20" customHeight="1" spans="3:11">
+      <c r="K8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="20" customHeight="1" spans="3:12">
       <c r="C9" s="1">
         <v>4</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>17</v>
+      <c r="D9" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F9" s="1">
-        <v>10000</v>
+        <v>20</v>
       </c>
       <c r="G9" s="1">
-        <f>H8+1</f>
-        <v>10021</v>
+        <v>1</v>
       </c>
       <c r="H9" s="1">
-        <f>H8+F9</f>
-        <v>20020</v>
+        <v>10000</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
       </c>
       <c r="J9" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="K9" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="12" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="K9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="1">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C11" s="1">
+        <v>6</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="1">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1">
+        <v>50</v>
+      </c>
+      <c r="H11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="3:12">
       <c r="C12" s="1">
         <v>7</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>19</v>
+      <c r="D12" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F12" s="1">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G12" s="1">
-        <f>H11+1</f>
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="H12" s="1">
-        <f>H11+F12</f>
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="I12" s="1">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="J12" s="1">
-        <v>10000</v>
-      </c>
-      <c r="K12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" customHeight="1" spans="3:11">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="3:12">
       <c r="C13" s="1">
         <v>8</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>21</v>
+      <c r="D13" s="1">
+        <v>3001</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F13" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G13" s="1">
-        <f>H12+1</f>
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="H13" s="1">
-        <f>H12+F13</f>
-        <v>200</v>
+        <v>10000</v>
       </c>
       <c r="I13" s="1">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="J13" s="1">
-        <v>10000</v>
-      </c>
-      <c r="K13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="3:11">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="3:12">
       <c r="C14" s="1">
         <v>9</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>23</v>
+      <c r="D14" s="1">
+        <v>3002</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F14" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G14" s="1">
-        <f>H13+1</f>
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H14" s="1">
-        <f>H13+F14</f>
-        <v>300</v>
+        <v>10000</v>
       </c>
       <c r="I14" s="1">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="J14" s="1">
-        <v>10000</v>
-      </c>
-      <c r="K14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="3:11">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="3:12">
       <c r="C15" s="1">
         <v>10</v>
       </c>
-      <c r="D15" s="1">
-        <v>3001</v>
+      <c r="D15" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F15" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G15" s="1">
-        <f>H14+1</f>
-        <v>301</v>
+        <v>250</v>
       </c>
       <c r="H15" s="1">
-        <f>H14+F15</f>
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="I15" s="1">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="J15" s="1">
-        <v>10000</v>
-      </c>
-      <c r="K15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="3:11">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="3:12">
       <c r="C16" s="1">
         <v>11</v>
       </c>
-      <c r="D16" s="1">
-        <v>3002</v>
+      <c r="D16" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F16" s="1">
+        <v>10</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="4:4">
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" customHeight="1" spans="4:4">
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" customHeight="1" spans="4:4">
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" customHeight="1" spans="3:11">
+      <c r="C20" s="1">
+        <v>101</v>
+      </c>
+      <c r="D20" s="4">
+        <v>180001</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I20" s="1">
         <v>100</v>
       </c>
-      <c r="G16" s="1">
-        <f>H15+1</f>
-        <v>401</v>
-      </c>
-      <c r="H16" s="1">
-        <f>H15+F16</f>
-        <v>500</v>
-      </c>
-      <c r="I16" s="1">
-        <v>500</v>
-      </c>
-      <c r="J16" s="1">
-        <v>10000</v>
-      </c>
-      <c r="K16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:11">
-      <c r="A17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="1">
-        <v>12</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="1">
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="3:11">
+      <c r="C21" s="1">
+        <v>102</v>
+      </c>
+      <c r="D21" s="4">
+        <v>180002</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I21" s="1">
         <v>100</v>
       </c>
-      <c r="G17" s="1">
-        <f>H16+1</f>
-        <v>501</v>
-      </c>
-      <c r="H17" s="1">
-        <f>H16+F17</f>
-        <v>600</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1">
-        <v>10000</v>
-      </c>
-      <c r="K17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="3:11">
-      <c r="C18" s="1">
-        <v>13</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="1">
-        <v>10</v>
-      </c>
-      <c r="G18" s="1">
-        <f>H17+1</f>
-        <v>601</v>
-      </c>
-      <c r="H18" s="1">
-        <f>H17+F18</f>
-        <v>610</v>
-      </c>
-      <c r="I18" s="1">
-        <v>1</v>
-      </c>
-      <c r="J18" s="1">
-        <v>10000</v>
-      </c>
-      <c r="K18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="3:11">
-      <c r="C19" s="1">
-        <v>14</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="1">
-        <v>10</v>
-      </c>
-      <c r="G19" s="1">
-        <f>H18+1</f>
-        <v>611</v>
-      </c>
-      <c r="H19" s="1">
-        <f>H18+F19</f>
-        <v>620</v>
-      </c>
-      <c r="I19" s="1">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1">
-        <v>10000</v>
-      </c>
-      <c r="K19" s="1">
-        <v>1</v>
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="3:11">
+      <c r="C22" s="1">
+        <v>103</v>
+      </c>
+      <c r="D22" s="4">
+        <v>180003</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I22" s="1">
+        <v>100</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="3:11">
+      <c r="C23" s="1">
+        <v>104</v>
+      </c>
+      <c r="D23" s="4">
+        <v>180004</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I23" s="1">
+        <v>100</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="3:11">
+      <c r="C24" s="1">
+        <v>105</v>
+      </c>
+      <c r="D24" s="4">
+        <v>180005</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I24" s="1">
+        <v>100</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="3:11">
+      <c r="C25" s="1">
+        <v>106</v>
+      </c>
+      <c r="D25" s="4">
+        <v>180006</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I25" s="1">
+        <v>100</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="3:11">
+      <c r="C26" s="1">
+        <v>107</v>
+      </c>
+      <c r="D26" s="4">
+        <v>180007</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I26" s="1">
+        <v>100</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="3:11">
+      <c r="C27" s="1">
+        <v>108</v>
+      </c>
+      <c r="D27" s="4">
+        <v>180008</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I27" s="1">
+        <v>100</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="3:11">
+      <c r="C28" s="1">
+        <v>109</v>
+      </c>
+      <c r="D28" s="4">
+        <v>180009</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I28" s="1">
+        <v>100</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="3:11">
+      <c r="C29" s="1">
+        <v>110</v>
+      </c>
+      <c r="D29" s="4">
+        <v>180010</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I29" s="1">
+        <v>100</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="3:11">
+      <c r="C30" s="1">
+        <v>111</v>
+      </c>
+      <c r="D30" s="4">
+        <v>180011</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I30" s="1">
+        <v>100</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="3:11">
+      <c r="C31" s="1">
+        <v>112</v>
+      </c>
+      <c r="D31" s="4">
+        <v>180012</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I31" s="1">
+        <v>100</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="3:11">
+      <c r="C32" s="1">
+        <v>113</v>
+      </c>
+      <c r="D32" s="4">
+        <v>180013</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I32" s="1">
+        <v>100</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1581,5 +2053,6 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/InfiniteDropConfig.xlsx
+++ b/Excel/InfiniteDropConfig.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="52">
   <si>
     <t>#</t>
   </si>
@@ -211,6 +211,12 @@
   </si>
   <si>
     <t>金蛟剪</t>
+  </si>
+  <si>
+    <t>精练契约</t>
+  </si>
+  <si>
+    <t>财富契约</t>
   </si>
 </sst>
 </file>
@@ -1196,10 +1202,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:L32"/>
+  <dimension ref="C1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1679,7 +1685,7 @@
         <v>36</v>
       </c>
       <c r="F20" s="1">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
@@ -1708,7 +1714,7 @@
         <v>38</v>
       </c>
       <c r="F21" s="1">
-        <v>10000</v>
+        <v>400</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
@@ -1766,7 +1772,7 @@
         <v>40</v>
       </c>
       <c r="F23" s="1">
-        <v>10000</v>
+        <v>800</v>
       </c>
       <c r="G23" s="1">
         <v>1</v>
@@ -1795,7 +1801,7 @@
         <v>41</v>
       </c>
       <c r="F24" s="1">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="G24" s="1">
         <v>1</v>
@@ -1824,7 +1830,7 @@
         <v>42</v>
       </c>
       <c r="F25" s="1">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G25" s="1">
         <v>1</v>
@@ -1853,7 +1859,7 @@
         <v>43</v>
       </c>
       <c r="F26" s="1">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="G26" s="1">
         <v>1</v>
@@ -1882,7 +1888,7 @@
         <v>44</v>
       </c>
       <c r="F27" s="1">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G27" s="1">
         <v>1</v>
@@ -1911,7 +1917,7 @@
         <v>45</v>
       </c>
       <c r="F28" s="1">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="G28" s="1">
         <v>1</v>
@@ -1940,7 +1946,7 @@
         <v>46</v>
       </c>
       <c r="F29" s="1">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="G29" s="1">
         <v>1</v>
@@ -2027,7 +2033,7 @@
         <v>49</v>
       </c>
       <c r="F32" s="1">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="G32" s="1">
         <v>1</v>
@@ -2042,6 +2048,64 @@
         <v>1</v>
       </c>
       <c r="K32" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="3:11">
+      <c r="C33" s="1">
+        <v>114</v>
+      </c>
+      <c r="D33" s="4">
+        <v>180014</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I33" s="1">
+        <v>100</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="3:11">
+      <c r="C34" s="1">
+        <v>115</v>
+      </c>
+      <c r="D34" s="4">
+        <v>180015</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I34" s="1">
+        <v>100</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1</v>
+      </c>
+      <c r="K34" s="1" t="s">
         <v>37</v>
       </c>
     </row>

--- a/Excel/InfiniteDropConfig.xlsx
+++ b/Excel/InfiniteDropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -1205,7 +1205,7 @@
   <dimension ref="C1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>

--- a/Excel/InfiniteDropConfig.xlsx
+++ b/Excel/InfiniteDropConfig.xlsx
@@ -162,7 +162,7 @@
     <t>10介技能</t>
   </si>
   <si>
-    <t>250层,1/3掉落</t>
+    <t>250层,1/10掉落</t>
   </si>
   <si>
     <t>220013</t>
@@ -1205,7 +1205,7 @@
   <dimension ref="C1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1336,7 +1336,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>13</v>
@@ -1368,7 +1368,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>16</v>
@@ -1464,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="1">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>16</v>
@@ -1496,7 +1496,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="1">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>16</v>
@@ -1528,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>28</v>
@@ -1560,7 +1560,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="1">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>16</v>
@@ -1592,7 +1592,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="1">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>16</v>
@@ -1612,7 +1612,7 @@
         <v>32</v>
       </c>
       <c r="F15" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G15" s="1">
         <v>250</v>
@@ -1656,7 +1656,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="1">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>16</v>
@@ -1755,7 +1755,7 @@
         <v>100</v>
       </c>
       <c r="J22" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>37</v>
@@ -1900,7 +1900,7 @@
         <v>100</v>
       </c>
       <c r="J27" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>37</v>
@@ -1987,7 +1987,7 @@
         <v>100</v>
       </c>
       <c r="J30" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>37</v>
@@ -2016,7 +2016,7 @@
         <v>100</v>
       </c>
       <c r="J31" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>37</v>
@@ -2074,7 +2074,7 @@
         <v>100</v>
       </c>
       <c r="J33" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>37</v>
@@ -2103,7 +2103,7 @@
         <v>100</v>
       </c>
       <c r="J34" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>37</v>

--- a/Excel/InfiniteDropConfig.xlsx
+++ b/Excel/InfiniteDropConfig.xlsx
@@ -1204,8 +1204,8 @@
   <sheetPr/>
   <dimension ref="C1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44:Q71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>

--- a/Excel/InfiniteDropConfig.xlsx
+++ b/Excel/InfiniteDropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -159,10 +159,10 @@
     <t>220012</t>
   </si>
   <si>
-    <t>10介技能</t>
-  </si>
-  <si>
-    <t>250层,1/10掉落</t>
+    <t>彻地钉</t>
+  </si>
+  <si>
+    <t>250层,1/7掉落</t>
   </si>
   <si>
     <t>220013</t>
@@ -1204,8 +1204,8 @@
   <sheetPr/>
   <dimension ref="C1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44:Q71"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1612,7 +1612,7 @@
         <v>32</v>
       </c>
       <c r="F15" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G15" s="1">
         <v>250</v>

--- a/Excel/InfiniteDropConfig.xlsx
+++ b/Excel/InfiniteDropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -1204,8 +1204,8 @@
   <sheetPr/>
   <dimension ref="C1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1685,7 +1685,7 @@
         <v>36</v>
       </c>
       <c r="F20" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
@@ -1714,7 +1714,7 @@
         <v>38</v>
       </c>
       <c r="F21" s="1">
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
@@ -1743,7 +1743,7 @@
         <v>39</v>
       </c>
       <c r="F22" s="1">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="G22" s="1">
         <v>1</v>
@@ -1772,7 +1772,7 @@
         <v>40</v>
       </c>
       <c r="F23" s="1">
-        <v>800</v>
+        <v>8000</v>
       </c>
       <c r="G23" s="1">
         <v>1</v>
@@ -1801,7 +1801,7 @@
         <v>41</v>
       </c>
       <c r="F24" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G24" s="1">
         <v>1</v>
@@ -1830,7 +1830,7 @@
         <v>42</v>
       </c>
       <c r="F25" s="1">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="G25" s="1">
         <v>1</v>
@@ -1859,7 +1859,7 @@
         <v>43</v>
       </c>
       <c r="F26" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G26" s="1">
         <v>1</v>
@@ -1888,7 +1888,7 @@
         <v>44</v>
       </c>
       <c r="F27" s="1">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="G27" s="1">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         <v>45</v>
       </c>
       <c r="F28" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G28" s="1">
         <v>1</v>
@@ -1946,7 +1946,7 @@
         <v>46</v>
       </c>
       <c r="F29" s="1">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G29" s="1">
         <v>1</v>
@@ -1975,7 +1975,7 @@
         <v>47</v>
       </c>
       <c r="F30" s="1">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="G30" s="1">
         <v>1</v>
@@ -2004,7 +2004,7 @@
         <v>48</v>
       </c>
       <c r="F31" s="1">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="G31" s="1">
         <v>1</v>
@@ -2033,7 +2033,7 @@
         <v>49</v>
       </c>
       <c r="F32" s="1">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G32" s="1">
         <v>1</v>
@@ -2062,7 +2062,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="1">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="G33" s="1">
         <v>1</v>
@@ -2091,7 +2091,7 @@
         <v>51</v>
       </c>
       <c r="F34" s="1">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="G34" s="1">
         <v>1</v>

--- a/Excel/InfiniteDropConfig.xlsx
+++ b/Excel/InfiniteDropConfig.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="54">
   <si>
     <t>#</t>
   </si>
@@ -169,6 +169,12 @@
   </si>
   <si>
     <t>高级书页</t>
+  </si>
+  <si>
+    <t>220014</t>
+  </si>
+  <si>
+    <t>无极道体</t>
   </si>
   <si>
     <t>BOSS杀手</t>
@@ -1204,8 +1210,8 @@
   <sheetPr/>
   <dimension ref="C1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1665,8 +1671,37 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="4:4">
-      <c r="D17" s="3"/>
+    <row r="17" customHeight="1" spans="3:12">
+      <c r="C17" s="1">
+        <v>12</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="1">
+        <v>30</v>
+      </c>
+      <c r="G17" s="1">
+        <v>350</v>
+      </c>
+      <c r="H17" s="1">
+        <v>350</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customHeight="1" spans="4:4">
       <c r="D18" s="3"/>
@@ -1682,7 +1717,7 @@
         <v>180001</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F20" s="1">
         <v>1000</v>
@@ -1700,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="3:11">
@@ -1711,7 +1746,7 @@
         <v>180002</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F21" s="1">
         <v>4000</v>
@@ -1729,7 +1764,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="3:11">
@@ -1740,7 +1775,7 @@
         <v>180003</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F22" s="1">
         <v>100000</v>
@@ -1758,7 +1793,7 @@
         <v>10</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="3:11">
@@ -1769,7 +1804,7 @@
         <v>180004</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F23" s="1">
         <v>8000</v>
@@ -1787,7 +1822,7 @@
         <v>1</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="3:11">
@@ -1798,7 +1833,7 @@
         <v>180005</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F24" s="1">
         <v>1000</v>
@@ -1816,7 +1851,7 @@
         <v>1</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="3:11">
@@ -1827,7 +1862,7 @@
         <v>180006</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F25" s="1">
         <v>20000</v>
@@ -1845,7 +1880,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="3:11">
@@ -1856,7 +1891,7 @@
         <v>180007</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F26" s="1">
         <v>1000</v>
@@ -1874,7 +1909,7 @@
         <v>1</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="3:11">
@@ -1885,7 +1920,7 @@
         <v>180008</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F27" s="1">
         <v>20000</v>
@@ -1903,7 +1938,7 @@
         <v>2</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="3:11">
@@ -1914,7 +1949,7 @@
         <v>180009</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F28" s="1">
         <v>1000</v>
@@ -1932,7 +1967,7 @@
         <v>1</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:11">
@@ -1943,7 +1978,7 @@
         <v>180010</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F29" s="1">
         <v>10000</v>
@@ -1961,7 +1996,7 @@
         <v>1</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="3:11">
@@ -1972,7 +2007,7 @@
         <v>180011</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F30" s="1">
         <v>100000</v>
@@ -1990,7 +2025,7 @@
         <v>10</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:11">
@@ -2001,7 +2036,7 @@
         <v>180012</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F31" s="1">
         <v>100000</v>
@@ -2019,7 +2054,7 @@
         <v>10</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="3:11">
@@ -2030,7 +2065,7 @@
         <v>180013</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F32" s="1">
         <v>10000</v>
@@ -2048,7 +2083,7 @@
         <v>1</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="3:11">
@@ -2059,7 +2094,7 @@
         <v>180014</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F33" s="1">
         <v>100000</v>
@@ -2077,7 +2112,7 @@
         <v>10</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="3:11">
@@ -2088,7 +2123,7 @@
         <v>180015</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F34" s="1">
         <v>100000</v>
@@ -2106,7 +2141,7 @@
         <v>10</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/InfiniteDropConfig.xlsx
+++ b/Excel/InfiniteDropConfig.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="55">
   <si>
     <t>#</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>无极道体</t>
+  </si>
+  <si>
+    <t>250层,1/10掉落</t>
   </si>
   <si>
     <t>BOSS杀手</t>
@@ -1211,7 +1214,7 @@
   <dimension ref="C1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1682,7 +1685,7 @@
         <v>37</v>
       </c>
       <c r="F17" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G17" s="1">
         <v>350</v>
@@ -1697,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="L17" s="1">
         <v>0</v>
@@ -1717,7 +1720,7 @@
         <v>180001</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F20" s="1">
         <v>1000</v>
@@ -1735,7 +1738,7 @@
         <v>1</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="3:11">
@@ -1746,7 +1749,7 @@
         <v>180002</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F21" s="1">
         <v>4000</v>
@@ -1764,7 +1767,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="3:11">
@@ -1775,7 +1778,7 @@
         <v>180003</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F22" s="1">
         <v>100000</v>
@@ -1793,7 +1796,7 @@
         <v>10</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="3:11">
@@ -1804,7 +1807,7 @@
         <v>180004</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F23" s="1">
         <v>8000</v>
@@ -1822,7 +1825,7 @@
         <v>1</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="3:11">
@@ -1833,7 +1836,7 @@
         <v>180005</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" s="1">
         <v>1000</v>
@@ -1851,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="3:11">
@@ -1862,7 +1865,7 @@
         <v>180006</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" s="1">
         <v>20000</v>
@@ -1880,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="3:11">
@@ -1891,7 +1894,7 @@
         <v>180007</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F26" s="1">
         <v>1000</v>
@@ -1909,7 +1912,7 @@
         <v>1</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="3:11">
@@ -1920,7 +1923,7 @@
         <v>180008</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F27" s="1">
         <v>20000</v>
@@ -1938,7 +1941,7 @@
         <v>2</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="3:11">
@@ -1949,7 +1952,7 @@
         <v>180009</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F28" s="1">
         <v>1000</v>
@@ -1967,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:11">
@@ -1978,7 +1981,7 @@
         <v>180010</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F29" s="1">
         <v>10000</v>
@@ -1996,7 +1999,7 @@
         <v>1</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="3:11">
@@ -2007,7 +2010,7 @@
         <v>180011</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F30" s="1">
         <v>100000</v>
@@ -2025,7 +2028,7 @@
         <v>10</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:11">
@@ -2036,7 +2039,7 @@
         <v>180012</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F31" s="1">
         <v>100000</v>
@@ -2054,7 +2057,7 @@
         <v>10</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="3:11">
@@ -2065,7 +2068,7 @@
         <v>180013</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F32" s="1">
         <v>10000</v>
@@ -2083,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="3:11">
@@ -2094,7 +2097,7 @@
         <v>180014</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F33" s="1">
         <v>100000</v>
@@ -2112,7 +2115,7 @@
         <v>10</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="3:11">
@@ -2123,7 +2126,7 @@
         <v>180015</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F34" s="1">
         <v>100000</v>
@@ -2141,7 +2144,7 @@
         <v>10</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/InfiniteDropConfig.xlsx
+++ b/Excel/InfiniteDropConfig.xlsx
@@ -1213,8 +1213,8 @@
   <sheetPr/>
   <dimension ref="C1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1723,7 +1723,7 @@
         <v>39</v>
       </c>
       <c r="F20" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
@@ -1839,7 +1839,7 @@
         <v>44</v>
       </c>
       <c r="F24" s="1">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G24" s="1">
         <v>1</v>
@@ -1897,7 +1897,7 @@
         <v>46</v>
       </c>
       <c r="F26" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G26" s="1">
         <v>1</v>
@@ -1955,7 +1955,7 @@
         <v>48</v>
       </c>
       <c r="F28" s="1">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G28" s="1">
         <v>1</v>

--- a/Excel/InfiniteDropConfig.xlsx
+++ b/Excel/InfiniteDropConfig.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
   <si>
     <t>#</t>
   </si>
@@ -226,6 +226,27 @@
   </si>
   <si>
     <t>财富契约</t>
+  </si>
+  <si>
+    <t>麻痹戒指</t>
+  </si>
+  <si>
+    <t>每百层大概1/10个</t>
+  </si>
+  <si>
+    <t>护身戒指</t>
+  </si>
+  <si>
+    <t>复活戒指</t>
+  </si>
+  <si>
+    <t>防御戒指</t>
+  </si>
+  <si>
+    <t>传送神戒</t>
+  </si>
+  <si>
+    <t>隐身戒指</t>
   </si>
 </sst>
 </file>
@@ -1211,10 +1232,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:L34"/>
+  <dimension ref="C1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1706,8 +1727,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="4:4">
+    <row r="18" customHeight="1" spans="4:6">
       <c r="D18" s="3"/>
+      <c r="F18" s="1">
+        <f>SUM(F6:F17)</f>
+        <v>254</v>
+      </c>
     </row>
     <row r="19" customHeight="1" spans="4:4">
       <c r="D19" s="3"/>
@@ -2145,6 +2170,216 @@
       </c>
       <c r="K34" s="1" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="3:18">
+      <c r="C37" s="1">
+        <v>201</v>
+      </c>
+      <c r="D37" s="4">
+        <v>190001</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="1">
+        <v>100</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1">
+        <v>900</v>
+      </c>
+      <c r="I37" s="1">
+        <v>5</v>
+      </c>
+      <c r="J37" s="1">
+        <v>1</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>300</v>
+      </c>
+      <c r="R37" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="3:18">
+      <c r="C38" s="1">
+        <v>202</v>
+      </c>
+      <c r="D38" s="4">
+        <v>190002</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" s="1">
+        <v>100</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1">
+        <v>900</v>
+      </c>
+      <c r="I38" s="1">
+        <v>5</v>
+      </c>
+      <c r="J38" s="1">
+        <v>1</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>401</v>
+      </c>
+      <c r="R38" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="3:18">
+      <c r="C39" s="1">
+        <v>203</v>
+      </c>
+      <c r="D39" s="4">
+        <v>190003</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" s="1">
+        <v>100</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+      <c r="H39" s="1">
+        <v>900</v>
+      </c>
+      <c r="I39" s="1">
+        <v>5</v>
+      </c>
+      <c r="J39" s="1">
+        <v>1</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>501</v>
+      </c>
+      <c r="R39" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="3:18">
+      <c r="C40" s="1">
+        <v>204</v>
+      </c>
+      <c r="D40" s="4">
+        <v>190004</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" s="1">
+        <v>100</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+      <c r="H40" s="1">
+        <v>900</v>
+      </c>
+      <c r="I40" s="1">
+        <v>5</v>
+      </c>
+      <c r="J40" s="1">
+        <v>1</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>601</v>
+      </c>
+      <c r="R40" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="3:18">
+      <c r="C41" s="1">
+        <v>205</v>
+      </c>
+      <c r="D41" s="4">
+        <v>190005</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F41" s="1">
+        <v>100</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1">
+        <v>900</v>
+      </c>
+      <c r="I41" s="1">
+        <v>5</v>
+      </c>
+      <c r="J41" s="1">
+        <v>1</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>701</v>
+      </c>
+      <c r="R41" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="3:18">
+      <c r="C42" s="1">
+        <v>206</v>
+      </c>
+      <c r="D42" s="4">
+        <v>190006</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" s="1">
+        <v>100</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1</v>
+      </c>
+      <c r="H42" s="1">
+        <v>900</v>
+      </c>
+      <c r="I42" s="1">
+        <v>5</v>
+      </c>
+      <c r="J42" s="1">
+        <v>1</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>801</v>
+      </c>
+      <c r="R42" s="1">
+        <v>900</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/InfiniteDropConfig.xlsx
+++ b/Excel/InfiniteDropConfig.xlsx
@@ -438,12 +438,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1232,10 +1232,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:R42"/>
+  <dimension ref="C1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2172,7 +2172,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="3:18">
+    <row r="37" customHeight="1" spans="3:11">
       <c r="C37" s="1">
         <v>201</v>
       </c>
@@ -2183,13 +2183,13 @@
         <v>55</v>
       </c>
       <c r="F37" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G37" s="1">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="H37" s="1">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="I37" s="1">
         <v>5</v>
@@ -2200,14 +2200,8 @@
       <c r="K37" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Q37" s="1">
-        <v>300</v>
-      </c>
-      <c r="R37" s="1">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="3:18">
+    </row>
+    <row r="38" customHeight="1" spans="3:11">
       <c r="C38" s="1">
         <v>202</v>
       </c>
@@ -2218,13 +2212,13 @@
         <v>57</v>
       </c>
       <c r="F38" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G38" s="1">
-        <v>1</v>
+        <v>401</v>
       </c>
       <c r="H38" s="1">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="I38" s="1">
         <v>5</v>
@@ -2235,14 +2229,8 @@
       <c r="K38" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Q38" s="1">
-        <v>401</v>
-      </c>
-      <c r="R38" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="3:18">
+    </row>
+    <row r="39" customHeight="1" spans="3:11">
       <c r="C39" s="1">
         <v>203</v>
       </c>
@@ -2253,13 +2241,13 @@
         <v>58</v>
       </c>
       <c r="F39" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G39" s="1">
-        <v>1</v>
+        <v>501</v>
       </c>
       <c r="H39" s="1">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="I39" s="1">
         <v>5</v>
@@ -2270,14 +2258,8 @@
       <c r="K39" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Q39" s="1">
-        <v>501</v>
-      </c>
-      <c r="R39" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="3:18">
+    </row>
+    <row r="40" customHeight="1" spans="3:11">
       <c r="C40" s="1">
         <v>204</v>
       </c>
@@ -2288,13 +2270,13 @@
         <v>59</v>
       </c>
       <c r="F40" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G40" s="1">
-        <v>1</v>
+        <v>601</v>
       </c>
       <c r="H40" s="1">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="I40" s="1">
         <v>5</v>
@@ -2305,14 +2287,8 @@
       <c r="K40" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Q40" s="1">
-        <v>601</v>
-      </c>
-      <c r="R40" s="1">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="3:18">
+    </row>
+    <row r="41" customHeight="1" spans="3:11">
       <c r="C41" s="1">
         <v>205</v>
       </c>
@@ -2323,13 +2299,13 @@
         <v>60</v>
       </c>
       <c r="F41" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G41" s="1">
-        <v>1</v>
+        <v>701</v>
       </c>
       <c r="H41" s="1">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="I41" s="1">
         <v>5</v>
@@ -2340,14 +2316,8 @@
       <c r="K41" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Q41" s="1">
-        <v>701</v>
-      </c>
-      <c r="R41" s="1">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="3:18">
+    </row>
+    <row r="42" customHeight="1" spans="3:11">
       <c r="C42" s="1">
         <v>206</v>
       </c>
@@ -2358,10 +2328,10 @@
         <v>61</v>
       </c>
       <c r="F42" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G42" s="1">
-        <v>1</v>
+        <v>801</v>
       </c>
       <c r="H42" s="1">
         <v>900</v>
@@ -2374,12 +2344,6 @@
       </c>
       <c r="K42" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="Q42" s="1">
-        <v>801</v>
-      </c>
-      <c r="R42" s="1">
-        <v>900</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/InfiniteDropConfig.xlsx
+++ b/Excel/InfiniteDropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
   <si>
     <t>#</t>
   </si>
@@ -228,25 +228,13 @@
     <t>财富契约</t>
   </si>
   <si>
-    <t>麻痹戒指</t>
-  </si>
-  <si>
-    <t>每百层大概1/10个</t>
-  </si>
-  <si>
-    <t>护身戒指</t>
-  </si>
-  <si>
-    <t>复活戒指</t>
-  </si>
-  <si>
-    <t>防御戒指</t>
-  </si>
-  <si>
-    <t>传送神戒</t>
-  </si>
-  <si>
-    <t>隐身戒指</t>
+    <t>220016</t>
+  </si>
+  <si>
+    <t>六大神戒</t>
+  </si>
+  <si>
+    <t>打完500层，3天一个</t>
   </si>
 </sst>
 </file>
@@ -438,12 +426,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1234,8 +1222,8 @@
   <sheetPr/>
   <dimension ref="C1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2176,175 +2164,45 @@
       <c r="C37" s="1">
         <v>201</v>
       </c>
-      <c r="D37" s="4">
-        <v>190001</v>
+      <c r="D37" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F37" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G37" s="1">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H37" s="1">
-        <v>400</v>
+        <v>10000</v>
       </c>
       <c r="I37" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J37" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="3:11">
-      <c r="C38" s="1">
-        <v>202</v>
-      </c>
-      <c r="D38" s="4">
-        <v>190002</v>
-      </c>
-      <c r="E38" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F38" s="1">
-        <v>1</v>
-      </c>
-      <c r="G38" s="1">
-        <v>401</v>
-      </c>
-      <c r="H38" s="1">
-        <v>500</v>
-      </c>
-      <c r="I38" s="1">
-        <v>5</v>
-      </c>
-      <c r="J38" s="1">
-        <v>1</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="3:11">
-      <c r="C39" s="1">
-        <v>203</v>
-      </c>
-      <c r="D39" s="4">
-        <v>190003</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F39" s="1">
-        <v>1</v>
-      </c>
-      <c r="G39" s="1">
-        <v>501</v>
-      </c>
-      <c r="H39" s="1">
-        <v>600</v>
-      </c>
-      <c r="I39" s="1">
-        <v>5</v>
-      </c>
-      <c r="J39" s="1">
-        <v>1</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="3:11">
-      <c r="C40" s="1">
-        <v>204</v>
-      </c>
-      <c r="D40" s="4">
-        <v>190004</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F40" s="1">
-        <v>1</v>
-      </c>
-      <c r="G40" s="1">
-        <v>601</v>
-      </c>
-      <c r="H40" s="1">
-        <v>700</v>
-      </c>
-      <c r="I40" s="1">
-        <v>5</v>
-      </c>
-      <c r="J40" s="1">
-        <v>1</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="3:11">
-      <c r="C41" s="1">
-        <v>205</v>
-      </c>
-      <c r="D41" s="4">
-        <v>190005</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F41" s="1">
-        <v>1</v>
-      </c>
-      <c r="G41" s="1">
-        <v>701</v>
-      </c>
-      <c r="H41" s="1">
-        <v>800</v>
-      </c>
-      <c r="I41" s="1">
-        <v>5</v>
-      </c>
-      <c r="J41" s="1">
-        <v>1</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="3:11">
-      <c r="C42" s="1">
-        <v>206</v>
-      </c>
-      <c r="D42" s="4">
-        <v>190006</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F42" s="1">
-        <v>1</v>
-      </c>
-      <c r="G42" s="1">
-        <v>801</v>
-      </c>
-      <c r="H42" s="1">
-        <v>900</v>
-      </c>
-      <c r="I42" s="1">
-        <v>5</v>
-      </c>
-      <c r="J42" s="1">
-        <v>1</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>56</v>
-      </c>
+    </row>
+    <row r="38" customHeight="1" spans="4:4">
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" customHeight="1" spans="4:4">
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" customHeight="1" spans="4:4">
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" customHeight="1" spans="4:4">
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" customHeight="1" spans="4:4">
+      <c r="D42" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/InfiniteDropConfig.xlsx
+++ b/Excel/InfiniteDropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -1220,10 +1220,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:L42"/>
+  <dimension ref="C1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1715,115 +1715,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="4:6">
+    <row r="18" customHeight="1" spans="4:4">
       <c r="D18" s="3"/>
-      <c r="F18" s="1">
-        <f>SUM(F6:F17)</f>
-        <v>254</v>
-      </c>
     </row>
     <row r="19" customHeight="1" spans="4:4">
       <c r="D19" s="3"/>
     </row>
-    <row r="20" customHeight="1" spans="3:11">
-      <c r="C20" s="1">
-        <v>101</v>
-      </c>
-      <c r="D20" s="4">
-        <v>180001</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I20" s="1">
-        <v>100</v>
-      </c>
-      <c r="J20" s="1">
-        <v>1</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="3:11">
-      <c r="C21" s="1">
-        <v>102</v>
-      </c>
-      <c r="D21" s="4">
-        <v>180002</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="1">
-        <v>4000</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1</v>
-      </c>
-      <c r="H21" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I21" s="1">
-        <v>100</v>
-      </c>
-      <c r="J21" s="1">
-        <v>1</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="3:11">
-      <c r="C22" s="1">
-        <v>103</v>
-      </c>
-      <c r="D22" s="4">
-        <v>180003</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="1">
-        <v>100000</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1</v>
-      </c>
-      <c r="H22" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I22" s="1">
-        <v>100</v>
-      </c>
-      <c r="J22" s="1">
-        <v>10</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>40</v>
-      </c>
+    <row r="20" customHeight="1" spans="4:4">
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" customHeight="1" spans="4:4">
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" customHeight="1" spans="4:4">
+      <c r="D22" s="3"/>
     </row>
     <row r="23" customHeight="1" spans="3:11">
       <c r="C23" s="1">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D23" s="4">
-        <v>180004</v>
+        <v>180001</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F23" s="1">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="G23" s="1">
         <v>1</v>
@@ -1843,16 +1761,16 @@
     </row>
     <row r="24" customHeight="1" spans="3:11">
       <c r="C24" s="1">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D24" s="4">
-        <v>180005</v>
+        <v>180002</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F24" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="G24" s="1">
         <v>1</v>
@@ -1872,16 +1790,16 @@
     </row>
     <row r="25" customHeight="1" spans="3:11">
       <c r="C25" s="1">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D25" s="4">
-        <v>180006</v>
+        <v>180003</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F25" s="1">
-        <v>20000</v>
+        <v>100000</v>
       </c>
       <c r="G25" s="1">
         <v>1</v>
@@ -1893,7 +1811,7 @@
         <v>100</v>
       </c>
       <c r="J25" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>40</v>
@@ -1901,16 +1819,16 @@
     </row>
     <row r="26" customHeight="1" spans="3:11">
       <c r="C26" s="1">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D26" s="4">
-        <v>180007</v>
+        <v>180004</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F26" s="1">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="G26" s="1">
         <v>1</v>
@@ -1930,16 +1848,16 @@
     </row>
     <row r="27" customHeight="1" spans="3:11">
       <c r="C27" s="1">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D27" s="4">
-        <v>180008</v>
+        <v>180005</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F27" s="1">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="G27" s="1">
         <v>1</v>
@@ -1951,7 +1869,7 @@
         <v>100</v>
       </c>
       <c r="J27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>40</v>
@@ -1959,16 +1877,16 @@
     </row>
     <row r="28" customHeight="1" spans="3:11">
       <c r="C28" s="1">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D28" s="4">
-        <v>180009</v>
+        <v>180006</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F28" s="1">
-        <v>3000</v>
+        <v>20000</v>
       </c>
       <c r="G28" s="1">
         <v>1</v>
@@ -1988,16 +1906,16 @@
     </row>
     <row r="29" customHeight="1" spans="3:11">
       <c r="C29" s="1">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D29" s="4">
-        <v>180010</v>
+        <v>180007</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F29" s="1">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G29" s="1">
         <v>1</v>
@@ -2017,16 +1935,16 @@
     </row>
     <row r="30" customHeight="1" spans="3:11">
       <c r="C30" s="1">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D30" s="4">
-        <v>180011</v>
+        <v>180008</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F30" s="1">
-        <v>100000</v>
+        <v>20000</v>
       </c>
       <c r="G30" s="1">
         <v>1</v>
@@ -2038,7 +1956,7 @@
         <v>100</v>
       </c>
       <c r="J30" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>40</v>
@@ -2046,16 +1964,16 @@
     </row>
     <row r="31" customHeight="1" spans="3:11">
       <c r="C31" s="1">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D31" s="4">
-        <v>180012</v>
+        <v>180009</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F31" s="1">
-        <v>100000</v>
+        <v>3000</v>
       </c>
       <c r="G31" s="1">
         <v>1</v>
@@ -2067,7 +1985,7 @@
         <v>100</v>
       </c>
       <c r="J31" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>40</v>
@@ -2075,13 +1993,13 @@
     </row>
     <row r="32" customHeight="1" spans="3:11">
       <c r="C32" s="1">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D32" s="4">
-        <v>180013</v>
+        <v>180010</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F32" s="1">
         <v>10000</v>
@@ -2104,13 +2022,13 @@
     </row>
     <row r="33" customHeight="1" spans="3:11">
       <c r="C33" s="1">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D33" s="4">
-        <v>180014</v>
+        <v>180011</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F33" s="1">
         <v>100000</v>
@@ -2133,13 +2051,13 @@
     </row>
     <row r="34" customHeight="1" spans="3:11">
       <c r="C34" s="1">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D34" s="4">
-        <v>180015</v>
+        <v>180012</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F34" s="1">
         <v>100000</v>
@@ -2160,49 +2078,136 @@
         <v>40</v>
       </c>
     </row>
+    <row r="35" customHeight="1" spans="3:11">
+      <c r="C35" s="1">
+        <v>113</v>
+      </c>
+      <c r="D35" s="4">
+        <v>180013</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I35" s="1">
+        <v>100</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="3:11">
+      <c r="C36" s="1">
+        <v>114</v>
+      </c>
+      <c r="D36" s="4">
+        <v>180014</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I36" s="1">
+        <v>100</v>
+      </c>
+      <c r="J36" s="1">
+        <v>10</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
     <row r="37" customHeight="1" spans="3:11">
       <c r="C37" s="1">
+        <v>115</v>
+      </c>
+      <c r="D37" s="4">
+        <v>180015</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F37" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I37" s="1">
+        <v>100</v>
+      </c>
+      <c r="J37" s="1">
+        <v>10</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="3:11">
+      <c r="C40" s="1">
         <v>201</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D40" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F37" s="1">
-        <v>5</v>
-      </c>
-      <c r="G37" s="1">
-        <v>100</v>
-      </c>
-      <c r="H37" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I37" s="1">
+      <c r="F40" s="1">
+        <v>4</v>
+      </c>
+      <c r="G40" s="1">
+        <v>150</v>
+      </c>
+      <c r="H40" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I40" s="1">
         <v>20</v>
       </c>
-      <c r="J37" s="1">
+      <c r="J40" s="1">
         <v>2</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="K40" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="38" customHeight="1" spans="4:4">
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" customHeight="1" spans="4:4">
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" customHeight="1" spans="4:4">
-      <c r="D40" s="4"/>
     </row>
     <row r="41" customHeight="1" spans="4:4">
       <c r="D41" s="4"/>
     </row>
     <row r="42" customHeight="1" spans="4:4">
       <c r="D42" s="4"/>
+    </row>
+    <row r="43" customHeight="1" spans="4:4">
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" customHeight="1" spans="4:4">
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" customHeight="1" spans="4:4">
+      <c r="D45" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/InfiniteDropConfig.xlsx
+++ b/Excel/InfiniteDropConfig.xlsx
@@ -1223,7 +1223,7 @@
   <dimension ref="C1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2176,7 +2176,7 @@
         <v>56</v>
       </c>
       <c r="F40" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G40" s="1">
         <v>150</v>

--- a/Excel/InfiniteDropConfig.xlsx
+++ b/Excel/InfiniteDropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="66">
   <si>
     <t>#</t>
   </si>
@@ -180,6 +180,24 @@
     <t>250层,1/10掉落</t>
   </si>
   <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>等级丹</t>
+  </si>
+  <si>
+    <t>220017</t>
+  </si>
+  <si>
+    <t>220018</t>
+  </si>
+  <si>
+    <t>220019</t>
+  </si>
+  <si>
+    <t>220020</t>
+  </si>
+  <si>
     <t>BOSS杀手</t>
   </si>
   <si>
@@ -235,6 +253,12 @@
   </si>
   <si>
     <t>打完500层，3天一个</t>
+  </si>
+  <si>
+    <t>4001</t>
+  </si>
+  <si>
+    <t>神技</t>
   </si>
 </sst>
 </file>
@@ -426,12 +450,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1220,10 +1244,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:L45"/>
+  <dimension ref="C1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1331,7 +1355,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:12">
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -1359,11 +1383,8 @@
       <c r="K6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:12">
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -1391,11 +1412,8 @@
       <c r="K7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:12">
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C8" s="1">
         <v>3</v>
       </c>
@@ -1412,7 +1430,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="1">
-        <v>10000</v>
+        <v>300</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -1423,11 +1441,8 @@
       <c r="K8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="20" customHeight="1" spans="3:12">
+    </row>
+    <row r="9" s="1" customFormat="1" ht="20" customHeight="1" spans="3:11">
       <c r="C9" s="1">
         <v>4</v>
       </c>
@@ -1455,11 +1470,8 @@
       <c r="K9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:12">
+    </row>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C10" s="1">
         <v>5</v>
       </c>
@@ -1487,11 +1499,8 @@
       <c r="K10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:12">
+    </row>
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C11" s="1">
         <v>6</v>
       </c>
@@ -1519,11 +1528,8 @@
       <c r="K11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="3:12">
+    </row>
+    <row r="12" customHeight="1" spans="3:11">
       <c r="C12" s="1">
         <v>7</v>
       </c>
@@ -1551,11 +1557,8 @@
       <c r="K12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="3:12">
+    </row>
+    <row r="13" customHeight="1" spans="3:11">
       <c r="C13" s="1">
         <v>8</v>
       </c>
@@ -1583,11 +1586,8 @@
       <c r="K13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="3:12">
+    </row>
+    <row r="14" customHeight="1" spans="3:11">
       <c r="C14" s="1">
         <v>9</v>
       </c>
@@ -1615,11 +1615,8 @@
       <c r="K14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="3:12">
+    </row>
+    <row r="15" customHeight="1" spans="3:11">
       <c r="C15" s="1">
         <v>10</v>
       </c>
@@ -1647,11 +1644,8 @@
       <c r="K15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="3:12">
+    </row>
+    <row r="16" customHeight="1" spans="3:11">
       <c r="C16" s="1">
         <v>11</v>
       </c>
@@ -1679,11 +1673,8 @@
       <c r="K16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="3:12">
+    </row>
+    <row r="17" customHeight="1" spans="3:11">
       <c r="C17" s="1">
         <v>12</v>
       </c>
@@ -1711,66 +1702,167 @@
       <c r="K17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="4:4">
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" customHeight="1" spans="4:4">
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" customHeight="1" spans="4:4">
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" customHeight="1" spans="4:4">
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" customHeight="1" spans="4:4">
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" customHeight="1" spans="3:11">
-      <c r="C23" s="1">
-        <v>101</v>
-      </c>
-      <c r="D23" s="4">
-        <v>180001</v>
-      </c>
-      <c r="E23" s="1" t="s">
+    </row>
+    <row r="18" customHeight="1" spans="3:11">
+      <c r="C18" s="1">
+        <v>13</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G23" s="1">
-        <v>1</v>
-      </c>
-      <c r="H23" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I23" s="1">
+      <c r="E18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="1">
         <v>100</v>
       </c>
-      <c r="J23" s="1">
-        <v>1</v>
-      </c>
-      <c r="K23" s="1" t="s">
+      <c r="G18" s="1">
+        <v>300</v>
+      </c>
+      <c r="H18" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>200</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C19" s="1">
+        <v>14</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="1">
+        <v>30</v>
+      </c>
+      <c r="G19" s="1">
+        <v>300</v>
+      </c>
+      <c r="H19" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="20" customHeight="1" spans="3:11">
+      <c r="C20" s="1">
+        <v>15</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="1">
+        <v>30</v>
+      </c>
+      <c r="G20" s="1">
+        <v>300</v>
+      </c>
+      <c r="H20" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C21" s="1">
+        <v>16</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="1">
         <v>40</v>
       </c>
+      <c r="G21" s="1">
+        <v>600</v>
+      </c>
+      <c r="H21" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="20" customHeight="1" spans="3:11">
+      <c r="C22" s="1">
+        <v>17</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="1">
+        <v>40</v>
+      </c>
+      <c r="G22" s="1">
+        <v>600</v>
+      </c>
+      <c r="H22" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="4:4">
+      <c r="D23" s="3"/>
     </row>
     <row r="24" customHeight="1" spans="3:11">
       <c r="C24" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D24" s="4">
-        <v>180002</v>
+        <v>180001</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F24" s="1">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="G24" s="1">
         <v>1</v>
@@ -1785,21 +1877,21 @@
         <v>1</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="3:11">
       <c r="C25" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D25" s="4">
-        <v>180003</v>
+        <v>180002</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F25" s="1">
-        <v>100000</v>
+        <v>4000</v>
       </c>
       <c r="G25" s="1">
         <v>1</v>
@@ -1811,24 +1903,24 @@
         <v>100</v>
       </c>
       <c r="J25" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="3:11">
       <c r="C26" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D26" s="4">
-        <v>180004</v>
+        <v>180003</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F26" s="1">
-        <v>8000</v>
+        <v>100000</v>
       </c>
       <c r="G26" s="1">
         <v>1</v>
@@ -1840,24 +1932,24 @@
         <v>100</v>
       </c>
       <c r="J26" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="3:11">
       <c r="C27" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D27" s="4">
-        <v>180005</v>
+        <v>180004</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F27" s="1">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="G27" s="1">
         <v>1</v>
@@ -1872,21 +1964,21 @@
         <v>1</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="3:11">
       <c r="C28" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D28" s="4">
-        <v>180006</v>
+        <v>180005</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F28" s="1">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="G28" s="1">
         <v>1</v>
@@ -1901,21 +1993,21 @@
         <v>1</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:11">
       <c r="C29" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D29" s="4">
-        <v>180007</v>
+        <v>180006</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F29" s="1">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="G29" s="1">
         <v>1</v>
@@ -1930,21 +2022,21 @@
         <v>1</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="3:11">
       <c r="C30" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D30" s="4">
-        <v>180008</v>
+        <v>180007</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F30" s="1">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="G30" s="1">
         <v>1</v>
@@ -1956,24 +2048,24 @@
         <v>100</v>
       </c>
       <c r="J30" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:11">
       <c r="C31" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D31" s="4">
-        <v>180009</v>
+        <v>180008</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F31" s="1">
-        <v>3000</v>
+        <v>20000</v>
       </c>
       <c r="G31" s="1">
         <v>1</v>
@@ -1985,24 +2077,24 @@
         <v>100</v>
       </c>
       <c r="J31" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="3:11">
       <c r="C32" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D32" s="4">
-        <v>180010</v>
+        <v>180009</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F32" s="1">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="G32" s="1">
         <v>1</v>
@@ -2017,21 +2109,21 @@
         <v>1</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="3:11">
       <c r="C33" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D33" s="4">
-        <v>180011</v>
+        <v>180010</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F33" s="1">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="G33" s="1">
         <v>1</v>
@@ -2043,21 +2135,21 @@
         <v>100</v>
       </c>
       <c r="J33" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="3:11">
       <c r="C34" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D34" s="4">
-        <v>180012</v>
+        <v>180011</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F34" s="1">
         <v>100000</v>
@@ -2075,21 +2167,21 @@
         <v>10</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="3:11">
       <c r="C35" s="1">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D35" s="4">
-        <v>180013</v>
+        <v>180012</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F35" s="1">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="G35" s="1">
         <v>1</v>
@@ -2101,24 +2193,24 @@
         <v>100</v>
       </c>
       <c r="J35" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="3:11">
       <c r="C36" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="4">
-        <v>180014</v>
+        <v>180013</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F36" s="1">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="G36" s="1">
         <v>1</v>
@@ -2130,21 +2222,21 @@
         <v>100</v>
       </c>
       <c r="J36" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="3:11">
       <c r="C37" s="1">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="4">
-        <v>180015</v>
+        <v>180014</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F37" s="1">
         <v>100000</v>
@@ -2162,43 +2254,95 @@
         <v>10</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="3:11">
-      <c r="C40" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="3:11">
+      <c r="C38" s="1">
+        <v>115</v>
+      </c>
+      <c r="D38" s="4">
+        <v>180015</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F38" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I38" s="1">
+        <v>100</v>
+      </c>
+      <c r="J38" s="1">
+        <v>10</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="3:11">
+      <c r="C41" s="1">
         <v>201</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F40" s="1">
+      <c r="D41" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F41" s="1">
         <v>3</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G41" s="1">
         <v>150</v>
       </c>
-      <c r="H40" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I40" s="1">
+      <c r="H41" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I41" s="1">
         <v>20</v>
       </c>
-      <c r="J40" s="1">
+      <c r="J41" s="1">
         <v>2</v>
       </c>
-      <c r="K40" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="4:4">
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" customHeight="1" spans="4:4">
-      <c r="D42" s="4"/>
+      <c r="K41" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="3:11">
+      <c r="C42" s="1">
+        <v>202</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F42" s="1">
+        <v>3</v>
+      </c>
+      <c r="G42" s="1">
+        <v>200</v>
+      </c>
+      <c r="H42" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I42" s="1">
+        <v>30</v>
+      </c>
+      <c r="J42" s="1">
+        <v>2</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="43" customHeight="1" spans="4:4">
       <c r="D43" s="4"/>
@@ -2208,6 +2352,9 @@
     </row>
     <row r="45" customHeight="1" spans="4:4">
       <c r="D45" s="4"/>
+    </row>
+    <row r="46" customHeight="1" spans="4:4">
+      <c r="D46" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/InfiniteDropConfig.xlsx
+++ b/Excel/InfiniteDropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="62">
   <si>
     <t>#</t>
   </si>
@@ -184,18 +184,6 @@
   </si>
   <si>
     <t>等级丹</t>
-  </si>
-  <si>
-    <t>220017</t>
-  </si>
-  <si>
-    <t>220018</t>
-  </si>
-  <si>
-    <t>220019</t>
-  </si>
-  <si>
-    <t>220020</t>
   </si>
   <si>
     <t>BOSS杀手</t>
@@ -1246,8 +1234,8 @@
   <sheetPr/>
   <dimension ref="C1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1424,7 +1412,7 @@
         <v>18</v>
       </c>
       <c r="F8" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -1453,7 +1441,7 @@
         <v>21</v>
       </c>
       <c r="F9" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -1714,7 +1702,7 @@
         <v>40</v>
       </c>
       <c r="F18" s="1">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G18" s="1">
         <v>300</v>
@@ -1732,121 +1720,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C19" s="1">
-        <v>14</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="1">
-        <v>30</v>
-      </c>
-      <c r="G19" s="1">
-        <v>300</v>
-      </c>
-      <c r="H19" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I19" s="1">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1">
-        <v>1000</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="20" customHeight="1" spans="3:11">
-      <c r="C20" s="1">
-        <v>15</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="1">
-        <v>30</v>
-      </c>
-      <c r="G20" s="1">
-        <v>300</v>
-      </c>
-      <c r="H20" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I20" s="1">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1">
-        <v>1000</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C21" s="1">
-        <v>16</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="1">
-        <v>40</v>
-      </c>
-      <c r="G21" s="1">
-        <v>600</v>
-      </c>
-      <c r="H21" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I21" s="1">
-        <v>1</v>
-      </c>
-      <c r="J21" s="1">
-        <v>1000</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="20" customHeight="1" spans="3:11">
-      <c r="C22" s="1">
-        <v>17</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="1">
-        <v>40</v>
-      </c>
-      <c r="G22" s="1">
-        <v>600</v>
-      </c>
-      <c r="H22" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I22" s="1">
-        <v>1</v>
-      </c>
-      <c r="J22" s="1">
-        <v>1000</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>19</v>
-      </c>
+    <row r="19" s="1" customFormat="1" customHeight="1" spans="4:4">
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="20" customHeight="1" spans="4:4">
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" s="1" customFormat="1" customHeight="1" spans="4:4">
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="20" customHeight="1" spans="4:4">
+      <c r="D22" s="3"/>
     </row>
     <row r="23" customHeight="1" spans="4:4">
       <c r="D23" s="3"/>
@@ -1859,7 +1743,7 @@
         <v>180001</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F24" s="1">
         <v>2000</v>
@@ -1877,7 +1761,7 @@
         <v>1</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="3:11">
@@ -1888,7 +1772,7 @@
         <v>180002</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F25" s="1">
         <v>4000</v>
@@ -1906,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="3:11">
@@ -1917,7 +1801,7 @@
         <v>180003</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F26" s="1">
         <v>100000</v>
@@ -1935,7 +1819,7 @@
         <v>10</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="3:11">
@@ -1946,7 +1830,7 @@
         <v>180004</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F27" s="1">
         <v>8000</v>
@@ -1964,7 +1848,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="3:11">
@@ -1975,7 +1859,7 @@
         <v>180005</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F28" s="1">
         <v>3000</v>
@@ -1993,7 +1877,7 @@
         <v>1</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:11">
@@ -2004,7 +1888,7 @@
         <v>180006</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F29" s="1">
         <v>20000</v>
@@ -2022,7 +1906,7 @@
         <v>1</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="3:11">
@@ -2033,7 +1917,7 @@
         <v>180007</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F30" s="1">
         <v>2000</v>
@@ -2051,7 +1935,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:11">
@@ -2062,7 +1946,7 @@
         <v>180008</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F31" s="1">
         <v>20000</v>
@@ -2080,7 +1964,7 @@
         <v>2</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="3:11">
@@ -2091,7 +1975,7 @@
         <v>180009</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F32" s="1">
         <v>3000</v>
@@ -2109,7 +1993,7 @@
         <v>1</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="3:11">
@@ -2120,7 +2004,7 @@
         <v>180010</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F33" s="1">
         <v>10000</v>
@@ -2138,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="3:11">
@@ -2149,7 +2033,7 @@
         <v>180011</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F34" s="1">
         <v>100000</v>
@@ -2167,7 +2051,7 @@
         <v>10</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="3:11">
@@ -2178,7 +2062,7 @@
         <v>180012</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F35" s="1">
         <v>100000</v>
@@ -2196,7 +2080,7 @@
         <v>10</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="3:11">
@@ -2207,7 +2091,7 @@
         <v>180013</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F36" s="1">
         <v>10000</v>
@@ -2225,7 +2109,7 @@
         <v>1</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="3:11">
@@ -2236,7 +2120,7 @@
         <v>180014</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F37" s="1">
         <v>100000</v>
@@ -2254,7 +2138,7 @@
         <v>10</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="3:11">
@@ -2265,7 +2149,7 @@
         <v>180015</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F38" s="1">
         <v>100000</v>
@@ -2283,7 +2167,7 @@
         <v>10</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="3:11">
@@ -2291,10 +2175,10 @@
         <v>201</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F41" s="1">
         <v>3</v>
@@ -2312,7 +2196,7 @@
         <v>2</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="3:11">
@@ -2320,13 +2204,13 @@
         <v>202</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F42" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G42" s="1">
         <v>200</v>
@@ -2341,7 +2225,7 @@
         <v>2</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="4:4">

--- a/Excel/InfiniteDropConfig.xlsx
+++ b/Excel/InfiniteDropConfig.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="63">
   <si>
     <t>#</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>等级丹</t>
+  </si>
+  <si>
+    <t>每百层大概2.5个</t>
   </si>
   <si>
     <t>BOSS杀手</t>
@@ -438,12 +441,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1234,8 +1237,8 @@
   <sheetPr/>
   <dimension ref="C1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1702,7 +1705,7 @@
         <v>40</v>
       </c>
       <c r="F18" s="1">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="G18" s="1">
         <v>300</v>
@@ -1717,7 +1720,7 @@
         <v>200</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" customHeight="1" spans="4:4">
@@ -1743,7 +1746,7 @@
         <v>180001</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F24" s="1">
         <v>2000</v>
@@ -1761,7 +1764,7 @@
         <v>1</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="3:11">
@@ -1772,7 +1775,7 @@
         <v>180002</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" s="1">
         <v>4000</v>
@@ -1790,7 +1793,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="3:11">
@@ -1801,7 +1804,7 @@
         <v>180003</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" s="1">
         <v>100000</v>
@@ -1819,7 +1822,7 @@
         <v>10</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="3:11">
@@ -1830,7 +1833,7 @@
         <v>180004</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F27" s="1">
         <v>8000</v>
@@ -1848,7 +1851,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="3:11">
@@ -1859,7 +1862,7 @@
         <v>180005</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F28" s="1">
         <v>3000</v>
@@ -1877,7 +1880,7 @@
         <v>1</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:11">
@@ -1888,7 +1891,7 @@
         <v>180006</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F29" s="1">
         <v>20000</v>
@@ -1906,7 +1909,7 @@
         <v>1</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="3:11">
@@ -1917,7 +1920,7 @@
         <v>180007</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F30" s="1">
         <v>2000</v>
@@ -1935,7 +1938,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:11">
@@ -1946,7 +1949,7 @@
         <v>180008</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F31" s="1">
         <v>20000</v>
@@ -1964,7 +1967,7 @@
         <v>2</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="3:11">
@@ -1975,7 +1978,7 @@
         <v>180009</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F32" s="1">
         <v>3000</v>
@@ -1993,7 +1996,7 @@
         <v>1</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="3:11">
@@ -2004,7 +2007,7 @@
         <v>180010</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F33" s="1">
         <v>10000</v>
@@ -2022,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="3:11">
@@ -2033,7 +2036,7 @@
         <v>180011</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F34" s="1">
         <v>100000</v>
@@ -2051,7 +2054,7 @@
         <v>10</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="3:11">
@@ -2062,7 +2065,7 @@
         <v>180012</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F35" s="1">
         <v>100000</v>
@@ -2080,7 +2083,7 @@
         <v>10</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="3:11">
@@ -2091,7 +2094,7 @@
         <v>180013</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F36" s="1">
         <v>10000</v>
@@ -2109,7 +2112,7 @@
         <v>1</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="3:11">
@@ -2120,7 +2123,7 @@
         <v>180014</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F37" s="1">
         <v>100000</v>
@@ -2138,7 +2141,7 @@
         <v>10</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="3:11">
@@ -2149,7 +2152,7 @@
         <v>180015</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F38" s="1">
         <v>100000</v>
@@ -2167,7 +2170,7 @@
         <v>10</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="3:11">
@@ -2175,10 +2178,10 @@
         <v>201</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F41" s="1">
         <v>3</v>
@@ -2196,7 +2199,7 @@
         <v>2</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="3:11">
@@ -2204,10 +2207,10 @@
         <v>202</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F42" s="1">
         <v>5</v>
@@ -2225,7 +2228,7 @@
         <v>2</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="4:4">

--- a/Excel/InfiniteDropConfig.xlsx
+++ b/Excel/InfiniteDropConfig.xlsx
@@ -1237,8 +1237,8 @@
   <sheetPr/>
   <dimension ref="C1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1705,7 +1705,7 @@
         <v>40</v>
       </c>
       <c r="F18" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G18" s="1">
         <v>300</v>
@@ -1717,7 +1717,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="1">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>41</v>

--- a/Excel/InfiniteDropConfig.xlsx
+++ b/Excel/InfiniteDropConfig.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="64">
   <si>
     <t>#</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>财富契约</t>
+  </si>
+  <si>
+    <t>传世之源</t>
   </si>
   <si>
     <t>220016</t>
@@ -1237,8 +1240,8 @@
   <sheetPr/>
   <dimension ref="C1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2173,18 +2176,47 @@
         <v>43</v>
       </c>
     </row>
+    <row r="39" customHeight="1" spans="3:11">
+      <c r="C39" s="1">
+        <v>120</v>
+      </c>
+      <c r="D39" s="4">
+        <v>180020</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+      <c r="H39" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I39" s="1">
+        <v>100</v>
+      </c>
+      <c r="J39" s="1">
+        <v>1</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="41" customHeight="1" spans="3:11">
       <c r="C41" s="1">
         <v>201</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F41" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G41" s="1">
         <v>150</v>
@@ -2199,7 +2231,7 @@
         <v>2</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="3:11">
@@ -2207,13 +2239,13 @@
         <v>202</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F42" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G42" s="1">
         <v>200</v>
@@ -2228,7 +2260,7 @@
         <v>2</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="4:4">

--- a/Excel/InfiniteDropConfig.xlsx
+++ b/Excel/InfiniteDropConfig.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="66">
   <si>
     <t>#</t>
   </si>
@@ -189,6 +189,15 @@
     <t>每百层大概2.5个</t>
   </si>
   <si>
+    <t>1007</t>
+  </si>
+  <si>
+    <t>红装精华</t>
+  </si>
+  <si>
+    <t>打完500层，3天一个</t>
+  </si>
+  <si>
     <t>BOSS杀手</t>
   </si>
   <si>
@@ -244,9 +253,6 @@
   </si>
   <si>
     <t>六大神戒</t>
-  </si>
-  <si>
-    <t>打完500层，3天一个</t>
   </si>
   <si>
     <t>4001</t>
@@ -1240,8 +1246,8 @@
   <sheetPr/>
   <dimension ref="C1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1726,8 +1732,34 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" customHeight="1" spans="4:4">
-      <c r="D19" s="3"/>
+    <row r="19" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C19" s="1">
+        <v>14</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>100</v>
+      </c>
+      <c r="H19" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I19" s="1">
+        <v>3</v>
+      </c>
+      <c r="J19" s="1">
+        <v>2</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="20" customHeight="1" spans="4:4">
       <c r="D20" s="3"/>
@@ -1749,7 +1781,7 @@
         <v>180001</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F24" s="1">
         <v>2000</v>
@@ -1767,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="3:11">
@@ -1778,7 +1810,7 @@
         <v>180002</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F25" s="1">
         <v>4000</v>
@@ -1796,7 +1828,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="3:11">
@@ -1807,7 +1839,7 @@
         <v>180003</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F26" s="1">
         <v>100000</v>
@@ -1825,7 +1857,7 @@
         <v>10</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="3:11">
@@ -1836,7 +1868,7 @@
         <v>180004</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F27" s="1">
         <v>8000</v>
@@ -1854,7 +1886,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="3:11">
@@ -1865,7 +1897,7 @@
         <v>180005</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F28" s="1">
         <v>3000</v>
@@ -1883,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:11">
@@ -1894,7 +1926,7 @@
         <v>180006</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F29" s="1">
         <v>20000</v>
@@ -1912,7 +1944,7 @@
         <v>1</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="3:11">
@@ -1923,7 +1955,7 @@
         <v>180007</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F30" s="1">
         <v>2000</v>
@@ -1941,7 +1973,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:11">
@@ -1952,7 +1984,7 @@
         <v>180008</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F31" s="1">
         <v>20000</v>
@@ -1970,7 +2002,7 @@
         <v>2</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="3:11">
@@ -1981,7 +2013,7 @@
         <v>180009</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F32" s="1">
         <v>3000</v>
@@ -1999,7 +2031,7 @@
         <v>1</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="3:11">
@@ -2010,7 +2042,7 @@
         <v>180010</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F33" s="1">
         <v>10000</v>
@@ -2028,7 +2060,7 @@
         <v>1</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="3:11">
@@ -2039,7 +2071,7 @@
         <v>180011</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F34" s="1">
         <v>100000</v>
@@ -2057,7 +2089,7 @@
         <v>10</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="3:11">
@@ -2068,7 +2100,7 @@
         <v>180012</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F35" s="1">
         <v>100000</v>
@@ -2086,7 +2118,7 @@
         <v>10</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="3:11">
@@ -2097,7 +2129,7 @@
         <v>180013</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F36" s="1">
         <v>10000</v>
@@ -2115,7 +2147,7 @@
         <v>1</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="3:11">
@@ -2126,7 +2158,7 @@
         <v>180014</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F37" s="1">
         <v>100000</v>
@@ -2144,7 +2176,7 @@
         <v>10</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="3:11">
@@ -2155,7 +2187,7 @@
         <v>180015</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F38" s="1">
         <v>100000</v>
@@ -2173,7 +2205,7 @@
         <v>10</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="3:11">
@@ -2184,7 +2216,7 @@
         <v>180020</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F39" s="1">
         <v>10000</v>
@@ -2202,7 +2234,7 @@
         <v>1</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="3:11">
@@ -2210,13 +2242,13 @@
         <v>201</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F41" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G41" s="1">
         <v>150</v>
@@ -2231,7 +2263,7 @@
         <v>2</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="3:11">
@@ -2239,13 +2271,13 @@
         <v>202</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F42" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G42" s="1">
         <v>200</v>
@@ -2260,7 +2292,7 @@
         <v>2</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="4:4">

--- a/Excel/InfiniteDropConfig.xlsx
+++ b/Excel/InfiniteDropConfig.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="68">
   <si>
     <t>#</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t>打完500层，3天一个</t>
+  </si>
+  <si>
+    <t>220015</t>
+  </si>
+  <si>
+    <t>分身术</t>
   </si>
   <si>
     <t>BOSS杀手</t>
@@ -1246,8 +1252,8 @@
   <sheetPr/>
   <dimension ref="C1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1761,8 +1767,34 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="20" customHeight="1" spans="4:4">
-      <c r="D20" s="3"/>
+    <row r="20" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C20" s="1">
+        <v>15</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="1">
+        <v>20</v>
+      </c>
+      <c r="G20" s="1">
+        <v>450</v>
+      </c>
+      <c r="H20" s="1">
+        <v>450</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="4:4">
       <c r="D21" s="3"/>
@@ -1781,7 +1813,7 @@
         <v>180001</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F24" s="1">
         <v>2000</v>
@@ -1799,7 +1831,7 @@
         <v>1</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="3:11">
@@ -1810,7 +1842,7 @@
         <v>180002</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F25" s="1">
         <v>4000</v>
@@ -1828,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="3:11">
@@ -1839,7 +1871,7 @@
         <v>180003</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F26" s="1">
         <v>100000</v>
@@ -1857,7 +1889,7 @@
         <v>10</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="3:11">
@@ -1868,7 +1900,7 @@
         <v>180004</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F27" s="1">
         <v>8000</v>
@@ -1886,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="3:11">
@@ -1897,7 +1929,7 @@
         <v>180005</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F28" s="1">
         <v>3000</v>
@@ -1915,7 +1947,7 @@
         <v>1</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:11">
@@ -1926,7 +1958,7 @@
         <v>180006</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F29" s="1">
         <v>20000</v>
@@ -1944,7 +1976,7 @@
         <v>1</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="3:11">
@@ -1955,7 +1987,7 @@
         <v>180007</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F30" s="1">
         <v>2000</v>
@@ -1973,7 +2005,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:11">
@@ -1984,7 +2016,7 @@
         <v>180008</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F31" s="1">
         <v>20000</v>
@@ -2002,7 +2034,7 @@
         <v>2</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="3:11">
@@ -2013,7 +2045,7 @@
         <v>180009</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F32" s="1">
         <v>3000</v>
@@ -2031,7 +2063,7 @@
         <v>1</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="3:11">
@@ -2042,7 +2074,7 @@
         <v>180010</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F33" s="1">
         <v>10000</v>
@@ -2060,7 +2092,7 @@
         <v>1</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="3:11">
@@ -2071,7 +2103,7 @@
         <v>180011</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F34" s="1">
         <v>100000</v>
@@ -2089,7 +2121,7 @@
         <v>10</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="3:11">
@@ -2100,7 +2132,7 @@
         <v>180012</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F35" s="1">
         <v>100000</v>
@@ -2118,7 +2150,7 @@
         <v>10</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="3:11">
@@ -2129,7 +2161,7 @@
         <v>180013</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F36" s="1">
         <v>10000</v>
@@ -2147,7 +2179,7 @@
         <v>1</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="3:11">
@@ -2158,7 +2190,7 @@
         <v>180014</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F37" s="1">
         <v>100000</v>
@@ -2176,7 +2208,7 @@
         <v>10</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="3:11">
@@ -2187,7 +2219,7 @@
         <v>180015</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F38" s="1">
         <v>100000</v>
@@ -2205,7 +2237,7 @@
         <v>10</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="3:11">
@@ -2216,7 +2248,7 @@
         <v>180020</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F39" s="1">
         <v>10000</v>
@@ -2234,7 +2266,7 @@
         <v>1</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="3:11">
@@ -2242,10 +2274,10 @@
         <v>201</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F41" s="1">
         <v>5</v>
@@ -2271,10 +2303,10 @@
         <v>202</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F42" s="1">
         <v>8</v>

--- a/Excel/InfiniteDropConfig.xlsx
+++ b/Excel/InfiniteDropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="71">
   <si>
     <t>#</t>
   </si>
@@ -202,6 +202,15 @@
   </si>
   <si>
     <t>分身术</t>
+  </si>
+  <si>
+    <t>220021</t>
+  </si>
+  <si>
+    <t>传世劵</t>
+  </si>
+  <si>
+    <t>100层掉一个</t>
   </si>
   <si>
     <t>BOSS杀手</t>
@@ -1252,8 +1261,8 @@
   <sheetPr/>
   <dimension ref="C1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1796,8 +1805,34 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" customHeight="1" spans="4:4">
-      <c r="D21" s="3"/>
+    <row r="21" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C21" s="1">
+        <v>16</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>10</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="20" customHeight="1" spans="4:4">
       <c r="D22" s="3"/>
@@ -1813,7 +1848,7 @@
         <v>180001</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F24" s="1">
         <v>2000</v>
@@ -1831,7 +1866,7 @@
         <v>1</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="3:11">
@@ -1842,7 +1877,7 @@
         <v>180002</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F25" s="1">
         <v>4000</v>
@@ -1860,7 +1895,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="3:11">
@@ -1871,7 +1906,7 @@
         <v>180003</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F26" s="1">
         <v>100000</v>
@@ -1889,7 +1924,7 @@
         <v>10</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="3:11">
@@ -1900,7 +1935,7 @@
         <v>180004</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F27" s="1">
         <v>8000</v>
@@ -1918,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="3:11">
@@ -1929,7 +1964,7 @@
         <v>180005</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F28" s="1">
         <v>3000</v>
@@ -1947,7 +1982,7 @@
         <v>1</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:11">
@@ -1958,7 +1993,7 @@
         <v>180006</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F29" s="1">
         <v>20000</v>
@@ -1976,7 +2011,7 @@
         <v>1</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="3:11">
@@ -1987,7 +2022,7 @@
         <v>180007</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F30" s="1">
         <v>2000</v>
@@ -2005,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:11">
@@ -2016,7 +2051,7 @@
         <v>180008</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F31" s="1">
         <v>20000</v>
@@ -2034,7 +2069,7 @@
         <v>2</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="3:11">
@@ -2045,7 +2080,7 @@
         <v>180009</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F32" s="1">
         <v>3000</v>
@@ -2063,7 +2098,7 @@
         <v>1</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="3:11">
@@ -2074,7 +2109,7 @@
         <v>180010</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F33" s="1">
         <v>10000</v>
@@ -2092,7 +2127,7 @@
         <v>1</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="3:11">
@@ -2103,7 +2138,7 @@
         <v>180011</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F34" s="1">
         <v>100000</v>
@@ -2121,7 +2156,7 @@
         <v>10</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="3:11">
@@ -2132,7 +2167,7 @@
         <v>180012</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F35" s="1">
         <v>100000</v>
@@ -2150,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="3:11">
@@ -2161,7 +2196,7 @@
         <v>180013</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F36" s="1">
         <v>10000</v>
@@ -2179,7 +2214,7 @@
         <v>1</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="3:11">
@@ -2190,7 +2225,7 @@
         <v>180014</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F37" s="1">
         <v>100000</v>
@@ -2208,7 +2243,7 @@
         <v>10</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="3:11">
@@ -2219,7 +2254,7 @@
         <v>180015</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F38" s="1">
         <v>100000</v>
@@ -2237,7 +2272,7 @@
         <v>10</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="3:11">
@@ -2248,7 +2283,7 @@
         <v>180020</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F39" s="1">
         <v>10000</v>
@@ -2266,7 +2301,7 @@
         <v>1</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="3:11">
@@ -2274,10 +2309,10 @@
         <v>201</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F41" s="1">
         <v>5</v>
@@ -2303,10 +2338,10 @@
         <v>202</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F42" s="1">
         <v>8</v>

--- a/Excel/InfiniteDropConfig.xlsx
+++ b/Excel/InfiniteDropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -1261,8 +1261,8 @@
   <sheetPr/>
   <dimension ref="C1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1819,7 +1819,7 @@
         <v>2</v>
       </c>
       <c r="G21" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="H21" s="1">
         <v>10000</v>

--- a/Excel/InfiniteDropConfig.xlsx
+++ b/Excel/InfiniteDropConfig.xlsx
@@ -1261,8 +1261,8 @@
   <sheetPr/>
   <dimension ref="C1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1509,7 +1509,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="1">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>16</v>
@@ -1538,7 +1538,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="1">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>16</v>
@@ -1596,7 +1596,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="1">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>16</v>
@@ -1625,7 +1625,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="1">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>16</v>

--- a/Excel/InfiniteDropConfig.xlsx
+++ b/Excel/InfiniteDropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -1261,8 +1261,8 @@
   <sheetPr/>
   <dimension ref="C1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1996,7 +1996,7 @@
         <v>56</v>
       </c>
       <c r="F29" s="1">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="G29" s="1">
         <v>1</v>

--- a/Excel/InfiniteDropConfig.xlsx
+++ b/Excel/InfiniteDropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="24045" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="72">
   <si>
     <t>#</t>
   </si>
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t>传世之源</t>
+  </si>
+  <si>
+    <t>升阶之源</t>
   </si>
   <si>
     <t>220016</t>
@@ -1259,10 +1262,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:L46"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2304,56 +2307,62 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="3:11">
-      <c r="C41" s="1">
-        <v>201</v>
-      </c>
-      <c r="D41" s="5" t="s">
+    <row r="40" customHeight="1" spans="1:11">
+      <c r="A40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1">
+        <v>121</v>
+      </c>
+      <c r="D40" s="4">
+        <v>180021</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F41" s="1">
-        <v>5</v>
-      </c>
-      <c r="G41" s="1">
-        <v>150</v>
-      </c>
-      <c r="H41" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I41" s="1">
-        <v>20</v>
-      </c>
-      <c r="J41" s="1">
-        <v>2</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>44</v>
+      <c r="F40" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+      <c r="H40" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I40" s="1">
+        <v>100</v>
+      </c>
+      <c r="J40" s="1">
+        <v>1</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="3:11">
       <c r="C42" s="1">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D42" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F42" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G42" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="H42" s="1">
         <v>10000</v>
       </c>
       <c r="I42" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J42" s="1">
         <v>2</v>
@@ -2362,8 +2371,34 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="4:4">
-      <c r="D43" s="4"/>
+    <row r="43" customHeight="1" spans="3:11">
+      <c r="C43" s="1">
+        <v>202</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F43" s="1">
+        <v>8</v>
+      </c>
+      <c r="G43" s="1">
+        <v>200</v>
+      </c>
+      <c r="H43" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I43" s="1">
+        <v>30</v>
+      </c>
+      <c r="J43" s="1">
+        <v>2</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="44" customHeight="1" spans="4:4">
       <c r="D44" s="4"/>
@@ -2373,6 +2408,9 @@
     </row>
     <row r="46" customHeight="1" spans="4:4">
       <c r="D46" s="4"/>
+    </row>
+    <row r="47" customHeight="1" spans="4:4">
+      <c r="D47" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/InfiniteDropConfig.xlsx
+++ b/Excel/InfiniteDropConfig.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="72">
   <si>
     <t>#</t>
   </si>
@@ -264,7 +264,7 @@
     <t>传世之源</t>
   </si>
   <si>
-    <t>升阶之源</t>
+    <t>神戒之源</t>
   </si>
   <si>
     <t>220016</t>
@@ -468,12 +468,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1262,10 +1262,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L47"/>
+  <dimension ref="C1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2011,7 +2011,7 @@
         <v>100</v>
       </c>
       <c r="J29" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>51</v>
@@ -2307,13 +2307,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="1:11">
-      <c r="A40" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="40" customHeight="1" spans="3:11">
       <c r="C40" s="1">
         <v>121</v>
       </c>

--- a/Excel/InfiniteDropConfig.xlsx
+++ b/Excel/InfiniteDropConfig.xlsx
@@ -1264,8 +1264,8 @@
   <sheetPr/>
   <dimension ref="C1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1912,7 +1912,7 @@
         <v>53</v>
       </c>
       <c r="F26" s="1">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="G26" s="1">
         <v>1</v>
@@ -1999,7 +1999,7 @@
         <v>56</v>
       </c>
       <c r="F29" s="1">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="G29" s="1">
         <v>1</v>

--- a/Excel/InfiniteDropConfig.xlsx
+++ b/Excel/InfiniteDropConfig.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="76">
   <si>
     <t>#</t>
   </si>
@@ -211,6 +211,18 @@
   </si>
   <si>
     <t>100层掉一个</t>
+  </si>
+  <si>
+    <t>220017</t>
+  </si>
+  <si>
+    <t>220018</t>
+  </si>
+  <si>
+    <t>220019</t>
+  </si>
+  <si>
+    <t>220020</t>
   </si>
   <si>
     <t>BOSS杀手</t>
@@ -1262,10 +1274,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:L47"/>
+  <dimension ref="C1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1477,7 +1489,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>10000</v>
+        <v>300</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
@@ -1837,314 +1849,158 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="20" customHeight="1" spans="4:4">
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" customHeight="1" spans="4:4">
-      <c r="D23" s="3"/>
+    <row r="22" s="1" customFormat="1" ht="20" customHeight="1" spans="3:11">
+      <c r="C22" s="1">
+        <v>17</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="1">
+        <v>30</v>
+      </c>
+      <c r="G22" s="1">
+        <v>301</v>
+      </c>
+      <c r="H22" s="1">
+        <v>600</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="3:11">
+      <c r="C23" s="1">
+        <v>18</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="1">
+        <v>30</v>
+      </c>
+      <c r="G23" s="1">
+        <v>301</v>
+      </c>
+      <c r="H23" s="1">
+        <v>600</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="24" customHeight="1" spans="3:11">
       <c r="C24" s="1">
-        <v>101</v>
-      </c>
-      <c r="D24" s="4">
-        <v>180001</v>
+        <v>19</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="F24" s="1">
-        <v>2000</v>
+        <v>30</v>
       </c>
       <c r="G24" s="1">
-        <v>1</v>
+        <v>601</v>
       </c>
       <c r="H24" s="1">
         <v>10000</v>
       </c>
       <c r="I24" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J24" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="3:11">
       <c r="C25" s="1">
-        <v>102</v>
-      </c>
-      <c r="D25" s="4">
-        <v>180002</v>
+        <v>20</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="F25" s="1">
-        <v>4000</v>
+        <v>30</v>
       </c>
       <c r="G25" s="1">
-        <v>1</v>
+        <v>601</v>
       </c>
       <c r="H25" s="1">
         <v>10000</v>
       </c>
       <c r="I25" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J25" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="3:11">
-      <c r="C26" s="1">
-        <v>103</v>
-      </c>
-      <c r="D26" s="4">
-        <v>180003</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26" s="1">
-        <v>150000</v>
-      </c>
-      <c r="G26" s="1">
-        <v>1</v>
-      </c>
-      <c r="H26" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I26" s="1">
-        <v>100</v>
-      </c>
-      <c r="J26" s="1">
-        <v>10</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="3:11">
-      <c r="C27" s="1">
-        <v>104</v>
-      </c>
-      <c r="D27" s="4">
-        <v>180004</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="1">
-        <v>8000</v>
-      </c>
-      <c r="G27" s="1">
-        <v>1</v>
-      </c>
-      <c r="H27" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I27" s="1">
-        <v>100</v>
-      </c>
-      <c r="J27" s="1">
-        <v>1</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="3:11">
-      <c r="C28" s="1">
-        <v>105</v>
-      </c>
-      <c r="D28" s="4">
-        <v>180005</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G28" s="1">
-        <v>1</v>
-      </c>
-      <c r="H28" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I28" s="1">
-        <v>100</v>
-      </c>
-      <c r="J28" s="1">
-        <v>1</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="3:11">
-      <c r="C29" s="1">
-        <v>106</v>
-      </c>
-      <c r="D29" s="4">
-        <v>180006</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F29" s="1">
-        <v>50000</v>
-      </c>
-      <c r="G29" s="1">
-        <v>1</v>
-      </c>
-      <c r="H29" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I29" s="1">
-        <v>100</v>
-      </c>
-      <c r="J29" s="1">
-        <v>10</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="3:11">
-      <c r="C30" s="1">
-        <v>107</v>
-      </c>
-      <c r="D30" s="4">
-        <v>180007</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F30" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G30" s="1">
-        <v>1</v>
-      </c>
-      <c r="H30" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I30" s="1">
-        <v>100</v>
-      </c>
-      <c r="J30" s="1">
-        <v>1</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="3:11">
-      <c r="C31" s="1">
-        <v>108</v>
-      </c>
-      <c r="D31" s="4">
-        <v>180008</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F31" s="1">
-        <v>20000</v>
-      </c>
-      <c r="G31" s="1">
-        <v>1</v>
-      </c>
-      <c r="H31" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I31" s="1">
-        <v>100</v>
-      </c>
-      <c r="J31" s="1">
-        <v>2</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="3:11">
-      <c r="C32" s="1">
-        <v>109</v>
-      </c>
-      <c r="D32" s="4">
-        <v>180009</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F32" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G32" s="1">
-        <v>1</v>
-      </c>
-      <c r="H32" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I32" s="1">
-        <v>100</v>
-      </c>
-      <c r="J32" s="1">
-        <v>1</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="3:11">
-      <c r="C33" s="1">
-        <v>110</v>
-      </c>
-      <c r="D33" s="4">
-        <v>180010</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G33" s="1">
-        <v>1</v>
-      </c>
-      <c r="H33" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I33" s="1">
-        <v>100</v>
-      </c>
-      <c r="J33" s="1">
-        <v>1</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="4:4">
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" customHeight="1" spans="4:4">
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" customHeight="1" spans="4:4">
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" customHeight="1" spans="4:4">
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" customHeight="1" spans="4:4">
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" customHeight="1" spans="4:4">
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" customHeight="1" spans="4:4">
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" customHeight="1" spans="4:4">
+      <c r="D33" s="3"/>
     </row>
     <row r="34" customHeight="1" spans="3:11">
       <c r="C34" s="1">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D34" s="4">
-        <v>180011</v>
+        <v>180001</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F34" s="1">
-        <v>100000</v>
+        <v>2000</v>
       </c>
       <c r="G34" s="1">
         <v>1</v>
@@ -2156,24 +2012,24 @@
         <v>100</v>
       </c>
       <c r="J34" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="3:11">
       <c r="C35" s="1">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D35" s="4">
-        <v>180012</v>
+        <v>180002</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F35" s="1">
-        <v>100000</v>
+        <v>4000</v>
       </c>
       <c r="G35" s="1">
         <v>1</v>
@@ -2185,24 +2041,24 @@
         <v>100</v>
       </c>
       <c r="J35" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="3:11">
       <c r="C36" s="1">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D36" s="4">
-        <v>180013</v>
+        <v>180003</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F36" s="1">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="G36" s="1">
         <v>1</v>
@@ -2214,24 +2070,24 @@
         <v>100</v>
       </c>
       <c r="J36" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="3:11">
       <c r="C37" s="1">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D37" s="4">
-        <v>180014</v>
+        <v>180004</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F37" s="1">
-        <v>100000</v>
+        <v>8000</v>
       </c>
       <c r="G37" s="1">
         <v>1</v>
@@ -2243,24 +2099,24 @@
         <v>100</v>
       </c>
       <c r="J37" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="3:11">
       <c r="C38" s="1">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D38" s="4">
-        <v>180015</v>
+        <v>180005</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F38" s="1">
-        <v>100000</v>
+        <v>3000</v>
       </c>
       <c r="G38" s="1">
         <v>1</v>
@@ -2272,24 +2128,24 @@
         <v>100</v>
       </c>
       <c r="J38" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="3:11">
       <c r="C39" s="1">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="D39" s="4">
-        <v>180020</v>
+        <v>180006</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F39" s="1">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="G39" s="1">
         <v>1</v>
@@ -2301,24 +2157,24 @@
         <v>100</v>
       </c>
       <c r="J39" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="3:11">
       <c r="C40" s="1">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D40" s="4">
-        <v>180021</v>
+        <v>180007</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F40" s="1">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G40" s="1">
         <v>1</v>
@@ -2333,78 +2189,368 @@
         <v>1</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="3:11">
+      <c r="C41" s="1">
+        <v>108</v>
+      </c>
+      <c r="D41" s="4">
+        <v>180008</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F41" s="1">
+        <v>20000</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I41" s="1">
+        <v>100</v>
+      </c>
+      <c r="J41" s="1">
+        <v>2</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="3:11">
       <c r="C42" s="1">
-        <v>201</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>68</v>
+        <v>109</v>
+      </c>
+      <c r="D42" s="4">
+        <v>180009</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F42" s="1">
-        <v>5</v>
+        <v>3000</v>
       </c>
       <c r="G42" s="1">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="H42" s="1">
         <v>10000</v>
       </c>
       <c r="I42" s="1">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J42" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="3:11">
       <c r="C43" s="1">
+        <v>110</v>
+      </c>
+      <c r="D43" s="4">
+        <v>180010</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F43" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I43" s="1">
+        <v>100</v>
+      </c>
+      <c r="J43" s="1">
+        <v>1</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="3:11">
+      <c r="C44" s="1">
+        <v>111</v>
+      </c>
+      <c r="D44" s="4">
+        <v>180011</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F44" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+      <c r="H44" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I44" s="1">
+        <v>100</v>
+      </c>
+      <c r="J44" s="1">
+        <v>10</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="3:11">
+      <c r="C45" s="1">
+        <v>112</v>
+      </c>
+      <c r="D45" s="4">
+        <v>180012</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F45" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1</v>
+      </c>
+      <c r="H45" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I45" s="1">
+        <v>100</v>
+      </c>
+      <c r="J45" s="1">
+        <v>10</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="3:11">
+      <c r="C46" s="1">
+        <v>113</v>
+      </c>
+      <c r="D46" s="4">
+        <v>180013</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F46" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+      <c r="H46" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I46" s="1">
+        <v>100</v>
+      </c>
+      <c r="J46" s="1">
+        <v>1</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="3:11">
+      <c r="C47" s="1">
+        <v>114</v>
+      </c>
+      <c r="D47" s="4">
+        <v>180014</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F47" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1</v>
+      </c>
+      <c r="H47" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I47" s="1">
+        <v>100</v>
+      </c>
+      <c r="J47" s="1">
+        <v>10</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="3:11">
+      <c r="C48" s="1">
+        <v>115</v>
+      </c>
+      <c r="D48" s="4">
+        <v>180015</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F48" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1</v>
+      </c>
+      <c r="H48" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I48" s="1">
+        <v>100</v>
+      </c>
+      <c r="J48" s="1">
+        <v>10</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="3:11">
+      <c r="C49" s="1">
+        <v>120</v>
+      </c>
+      <c r="D49" s="4">
+        <v>180020</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F49" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1</v>
+      </c>
+      <c r="H49" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I49" s="1">
+        <v>100</v>
+      </c>
+      <c r="J49" s="1">
+        <v>1</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="3:11">
+      <c r="C50" s="1">
+        <v>121</v>
+      </c>
+      <c r="D50" s="4">
+        <v>180021</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F50" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1</v>
+      </c>
+      <c r="H50" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I50" s="1">
+        <v>100</v>
+      </c>
+      <c r="J50" s="1">
+        <v>1</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="3:11">
+      <c r="C52" s="1">
+        <v>201</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F52" s="1">
+        <v>5</v>
+      </c>
+      <c r="G52" s="1">
+        <v>150</v>
+      </c>
+      <c r="H52" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I52" s="1">
+        <v>20</v>
+      </c>
+      <c r="J52" s="1">
+        <v>2</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="3:11">
+      <c r="C53" s="1">
         <v>202</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F43" s="1">
+      <c r="D53" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F53" s="1">
         <v>8</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G53" s="1">
         <v>200</v>
       </c>
-      <c r="H43" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I43" s="1">
+      <c r="H53" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I53" s="1">
         <v>30</v>
       </c>
-      <c r="J43" s="1">
+      <c r="J53" s="1">
         <v>2</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="K53" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="4:4">
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" customHeight="1" spans="4:4">
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" customHeight="1" spans="4:4">
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47" customHeight="1" spans="4:4">
-      <c r="D47" s="4"/>
+    <row r="54" customHeight="1" spans="4:4">
+      <c r="D54" s="4"/>
+    </row>
+    <row r="55" customHeight="1" spans="4:4">
+      <c r="D55" s="4"/>
+    </row>
+    <row r="56" customHeight="1" spans="4:4">
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" customHeight="1" spans="4:4">
+      <c r="D57" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/InfiniteDropConfig.xlsx
+++ b/Excel/InfiniteDropConfig.xlsx
@@ -1277,7 +1277,7 @@
   <dimension ref="C1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1454,7 +1454,7 @@
         <v>18</v>
       </c>
       <c r="F8" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -1483,7 +1483,7 @@
         <v>21</v>
       </c>
       <c r="F9" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -1860,7 +1860,7 @@
         <v>18</v>
       </c>
       <c r="F22" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G22" s="1">
         <v>301</v>
@@ -1889,7 +1889,7 @@
         <v>21</v>
       </c>
       <c r="F23" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G23" s="1">
         <v>301</v>
@@ -1918,7 +1918,7 @@
         <v>18</v>
       </c>
       <c r="F24" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G24" s="1">
         <v>601</v>
@@ -1947,7 +1947,7 @@
         <v>21</v>
       </c>
       <c r="F25" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G25" s="1">
         <v>601</v>

--- a/Excel/InfiniteDropConfig.xlsx
+++ b/Excel/InfiniteDropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -480,12 +480,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1276,8 +1276,8 @@
   <sheetPr/>
   <dimension ref="C1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2348,7 +2348,7 @@
         <v>67</v>
       </c>
       <c r="F46" s="1">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="G46" s="1">
         <v>1</v>

--- a/Excel/InfiniteDropConfig.xlsx
+++ b/Excel/InfiniteDropConfig.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="81">
   <si>
     <t>#</t>
   </si>
@@ -225,6 +225,12 @@
     <t>220020</t>
   </si>
   <si>
+    <t>220022</t>
+  </si>
+  <si>
+    <t>220023</t>
+  </si>
+  <si>
     <t>BOSS杀手</t>
   </si>
   <si>
@@ -277,6 +283,15 @@
   </si>
   <si>
     <t>神戒之源</t>
+  </si>
+  <si>
+    <t>极·卖身契</t>
+  </si>
+  <si>
+    <t>10倍数，低概率掉落</t>
+  </si>
+  <si>
+    <t>极·圣者遗物</t>
   </si>
   <si>
     <t>220016</t>
@@ -1274,10 +1289,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:L57"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1924,7 +1939,7 @@
         <v>601</v>
       </c>
       <c r="H24" s="1">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="I24" s="1">
         <v>1</v>
@@ -1953,7 +1968,7 @@
         <v>601</v>
       </c>
       <c r="H25" s="1">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="I25" s="1">
         <v>1</v>
@@ -1965,11 +1980,63 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="4:4">
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" customHeight="1" spans="4:4">
-      <c r="D27" s="3"/>
+    <row r="26" customHeight="1" spans="3:11">
+      <c r="C26" s="1">
+        <v>21</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="1">
+        <v>50</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1001</v>
+      </c>
+      <c r="H26" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="3:11">
+      <c r="C27" s="1">
+        <v>22</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="1">
+        <v>50</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1001</v>
+      </c>
+      <c r="H27" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="28" customHeight="1" spans="4:4">
       <c r="D28" s="3"/>
@@ -1980,33 +2047,111 @@
     <row r="30" customHeight="1" spans="4:4">
       <c r="D30" s="3"/>
     </row>
-    <row r="31" customHeight="1" spans="4:4">
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" customHeight="1" spans="4:4">
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" customHeight="1" spans="4:4">
-      <c r="D33" s="3"/>
+    <row r="31" customHeight="1" spans="3:11">
+      <c r="C31" s="1">
+        <v>101</v>
+      </c>
+      <c r="D31" s="4">
+        <v>180001</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I31" s="1">
+        <v>100</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="3:11">
+      <c r="C32" s="1">
+        <v>102</v>
+      </c>
+      <c r="D32" s="4">
+        <v>180002</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="1">
+        <v>4000</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I32" s="1">
+        <v>100</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="3:11">
+      <c r="C33" s="1">
+        <v>103</v>
+      </c>
+      <c r="D33" s="4">
+        <v>180003</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="1">
+        <v>150000</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I33" s="1">
+        <v>100</v>
+      </c>
+      <c r="J33" s="1">
+        <v>10</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="34" customHeight="1" spans="3:11">
       <c r="C34" s="1">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D34" s="4">
-        <v>180001</v>
+        <v>180004</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F34" s="1">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="G34" s="1">
         <v>1</v>
       </c>
       <c r="H34" s="1">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="I34" s="1">
         <v>100</v>
@@ -2015,27 +2160,27 @@
         <v>1</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="3:11">
       <c r="C35" s="1">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D35" s="4">
-        <v>180002</v>
+        <v>180005</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F35" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="G35" s="1">
         <v>1</v>
       </c>
       <c r="H35" s="1">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="I35" s="1">
         <v>100</v>
@@ -2044,27 +2189,27 @@
         <v>1</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="3:11">
       <c r="C36" s="1">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D36" s="4">
-        <v>180003</v>
+        <v>180006</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F36" s="1">
-        <v>150000</v>
+        <v>50000</v>
       </c>
       <c r="G36" s="1">
         <v>1</v>
       </c>
       <c r="H36" s="1">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="I36" s="1">
         <v>100</v>
@@ -2073,27 +2218,27 @@
         <v>10</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="3:11">
       <c r="C37" s="1">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D37" s="4">
-        <v>180004</v>
+        <v>180007</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F37" s="1">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="G37" s="1">
         <v>1</v>
       </c>
       <c r="H37" s="1">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="I37" s="1">
         <v>100</v>
@@ -2102,85 +2247,85 @@
         <v>1</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="3:11">
       <c r="C38" s="1">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D38" s="4">
-        <v>180005</v>
+        <v>180008</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F38" s="1">
-        <v>3000</v>
+        <v>20000</v>
       </c>
       <c r="G38" s="1">
         <v>1</v>
       </c>
       <c r="H38" s="1">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="I38" s="1">
         <v>100</v>
       </c>
       <c r="J38" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="3:11">
       <c r="C39" s="1">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D39" s="4">
-        <v>180006</v>
+        <v>180009</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F39" s="1">
-        <v>50000</v>
+        <v>3000</v>
       </c>
       <c r="G39" s="1">
         <v>1</v>
       </c>
       <c r="H39" s="1">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="I39" s="1">
         <v>100</v>
       </c>
       <c r="J39" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="3:11">
       <c r="C40" s="1">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D40" s="4">
-        <v>180007</v>
+        <v>180010</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F40" s="1">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="G40" s="1">
         <v>1</v>
       </c>
       <c r="H40" s="1">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="I40" s="1">
         <v>100</v>
@@ -2189,85 +2334,85 @@
         <v>1</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="3:11">
       <c r="C41" s="1">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D41" s="4">
-        <v>180008</v>
+        <v>180011</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F41" s="1">
-        <v>20000</v>
+        <v>100000</v>
       </c>
       <c r="G41" s="1">
         <v>1</v>
       </c>
       <c r="H41" s="1">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="I41" s="1">
         <v>100</v>
       </c>
       <c r="J41" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="3:11">
       <c r="C42" s="1">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D42" s="4">
-        <v>180009</v>
+        <v>180012</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F42" s="1">
-        <v>3000</v>
+        <v>100000</v>
       </c>
       <c r="G42" s="1">
         <v>1</v>
       </c>
       <c r="H42" s="1">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="I42" s="1">
         <v>100</v>
       </c>
       <c r="J42" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="3:11">
       <c r="C43" s="1">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D43" s="4">
-        <v>180010</v>
+        <v>180013</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F43" s="1">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="G43" s="1">
         <v>1</v>
       </c>
       <c r="H43" s="1">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="I43" s="1">
         <v>100</v>
@@ -2276,18 +2421,18 @@
         <v>1</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="3:11">
       <c r="C44" s="1">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D44" s="4">
-        <v>180011</v>
+        <v>180014</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F44" s="1">
         <v>100000</v>
@@ -2296,7 +2441,7 @@
         <v>1</v>
       </c>
       <c r="H44" s="1">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="I44" s="1">
         <v>100</v>
@@ -2305,18 +2450,18 @@
         <v>10</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="3:11">
       <c r="C45" s="1">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D45" s="4">
-        <v>180012</v>
+        <v>180015</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F45" s="1">
         <v>100000</v>
@@ -2325,7 +2470,7 @@
         <v>1</v>
       </c>
       <c r="H45" s="1">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="I45" s="1">
         <v>100</v>
@@ -2334,27 +2479,27 @@
         <v>10</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="3:11">
       <c r="C46" s="1">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D46" s="4">
-        <v>180013</v>
+        <v>180020</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F46" s="1">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="G46" s="1">
         <v>1</v>
       </c>
       <c r="H46" s="1">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="I46" s="1">
         <v>100</v>
@@ -2363,175 +2508,123 @@
         <v>1</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="3:11">
       <c r="C47" s="1">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D47" s="4">
-        <v>180014</v>
+        <v>180021</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F47" s="1">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="G47" s="1">
         <v>1</v>
       </c>
       <c r="H47" s="1">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="I47" s="1">
         <v>100</v>
       </c>
       <c r="J47" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" customHeight="1" spans="3:11">
-      <c r="C48" s="1">
-        <v>115</v>
-      </c>
-      <c r="D48" s="4">
-        <v>180015</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F48" s="1">
-        <v>100000</v>
-      </c>
-      <c r="G48" s="1">
-        <v>1</v>
-      </c>
-      <c r="H48" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I48" s="1">
-        <v>100</v>
-      </c>
-      <c r="J48" s="1">
-        <v>10</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="3:11">
       <c r="C49" s="1">
-        <v>120</v>
-      </c>
-      <c r="D49" s="4">
-        <v>180020</v>
+        <v>130</v>
+      </c>
+      <c r="D49" s="1">
+        <v>180030</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F49" s="1">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="G49" s="1">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="H49" s="1">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="I49" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="J49" s="1">
         <v>1</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="50" customHeight="1" spans="3:11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:11">
+      <c r="A50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C50" s="1">
-        <v>121</v>
-      </c>
-      <c r="D50" s="4">
-        <v>180021</v>
+        <v>131</v>
+      </c>
+      <c r="D50" s="1">
+        <v>180031</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F50" s="1">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="G50" s="1">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="H50" s="1">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="I50" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="J50" s="1">
         <v>1</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" spans="3:11">
-      <c r="C52" s="1">
-        <v>201</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F52" s="1">
-        <v>5</v>
-      </c>
-      <c r="G52" s="1">
-        <v>150</v>
-      </c>
-      <c r="H52" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I52" s="1">
-        <v>20</v>
-      </c>
-      <c r="J52" s="1">
-        <v>2</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="3:11">
       <c r="C53" s="1">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F53" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G53" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="H53" s="1">
         <v>10000</v>
       </c>
       <c r="I53" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J53" s="1">
         <v>2</v>
@@ -2540,8 +2633,34 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" customHeight="1" spans="4:4">
-      <c r="D54" s="4"/>
+    <row r="54" customHeight="1" spans="3:11">
+      <c r="C54" s="1">
+        <v>202</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F54" s="1">
+        <v>5</v>
+      </c>
+      <c r="G54" s="1">
+        <v>200</v>
+      </c>
+      <c r="H54" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I54" s="1">
+        <v>30</v>
+      </c>
+      <c r="J54" s="1">
+        <v>2</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="55" customHeight="1" spans="4:4">
       <c r="D55" s="4"/>
@@ -2552,9 +2671,12 @@
     <row r="57" customHeight="1" spans="4:4">
       <c r="D57" s="4"/>
     </row>
+    <row r="58" customHeight="1" spans="4:4">
+      <c r="D58" s="4"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3 D3 E3 D4 D5 C4:C5 E4:E5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:E5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/InfiniteDropConfig.xlsx
+++ b/Excel/InfiniteDropConfig.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="86">
   <si>
     <t>#</t>
   </si>
@@ -229,6 +229,21 @@
   </si>
   <si>
     <t>220023</t>
+  </si>
+  <si>
+    <t>220024</t>
+  </si>
+  <si>
+    <t>220025</t>
+  </si>
+  <si>
+    <t>220026</t>
+  </si>
+  <si>
+    <t>220027</t>
+  </si>
+  <si>
+    <t>220028</t>
   </si>
   <si>
     <t>BOSS杀手</t>
@@ -1289,10 +1304,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1533,7 +1548,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="1">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -1562,7 +1577,7 @@
         <v>50</v>
       </c>
       <c r="H11" s="1">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
@@ -1591,7 +1606,7 @@
         <v>150</v>
       </c>
       <c r="H12" s="1">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
@@ -1620,7 +1635,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="1">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="I13" s="1">
         <v>1</v>
@@ -1649,7 +1664,7 @@
         <v>200</v>
       </c>
       <c r="H14" s="1">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="I14" s="1">
         <v>1</v>
@@ -2038,114 +2053,166 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="4:4">
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" customHeight="1" spans="4:4">
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" customHeight="1" spans="4:4">
-      <c r="D30" s="3"/>
+    <row r="28" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C28" s="1">
+        <v>23</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="1">
+        <v>10</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1001</v>
+      </c>
+      <c r="H28" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C29" s="1">
+        <v>24</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="1">
+        <v>10</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1001</v>
+      </c>
+      <c r="H29" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="3:11">
+      <c r="C30" s="1">
+        <v>25</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="1">
+        <v>4</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1001</v>
+      </c>
+      <c r="H30" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1">
+        <v>20</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="31" customHeight="1" spans="3:11">
       <c r="C31" s="1">
-        <v>101</v>
-      </c>
-      <c r="D31" s="4">
-        <v>180001</v>
+        <v>26</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="F31" s="1">
-        <v>2000</v>
+        <v>10</v>
       </c>
       <c r="G31" s="1">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="H31" s="1">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="I31" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J31" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="3:11">
       <c r="C32" s="1">
-        <v>102</v>
-      </c>
-      <c r="D32" s="4">
-        <v>180002</v>
+        <v>27</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="F32" s="1">
-        <v>4000</v>
+        <v>10</v>
       </c>
       <c r="G32" s="1">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="H32" s="1">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="I32" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J32" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="3:11">
-      <c r="C33" s="1">
-        <v>103</v>
-      </c>
-      <c r="D33" s="4">
-        <v>180003</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="1">
-        <v>150000</v>
-      </c>
-      <c r="G33" s="1">
-        <v>1</v>
-      </c>
-      <c r="H33" s="1">
-        <v>1000</v>
-      </c>
-      <c r="I33" s="1">
-        <v>100</v>
-      </c>
-      <c r="J33" s="1">
-        <v>10</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="4:4">
+      <c r="D33" s="3"/>
     </row>
     <row r="34" customHeight="1" spans="3:11">
       <c r="C34" s="1">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D34" s="4">
-        <v>180004</v>
+        <v>180001</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F34" s="1">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="G34" s="1">
         <v>1</v>
@@ -2160,21 +2227,21 @@
         <v>1</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="3:11">
       <c r="C35" s="1">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D35" s="4">
-        <v>180005</v>
+        <v>180002</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F35" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="G35" s="1">
         <v>1</v>
@@ -2189,21 +2256,21 @@
         <v>1</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="3:11">
       <c r="C36" s="1">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D36" s="4">
-        <v>180006</v>
+        <v>180003</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F36" s="1">
-        <v>50000</v>
+        <v>150000</v>
       </c>
       <c r="G36" s="1">
         <v>1</v>
@@ -2218,21 +2285,21 @@
         <v>10</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="3:11">
       <c r="C37" s="1">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D37" s="4">
-        <v>180007</v>
+        <v>180004</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F37" s="1">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="G37" s="1">
         <v>1</v>
@@ -2247,21 +2314,21 @@
         <v>1</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="3:11">
       <c r="C38" s="1">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D38" s="4">
-        <v>180008</v>
+        <v>180005</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F38" s="1">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="G38" s="1">
         <v>1</v>
@@ -2273,24 +2340,24 @@
         <v>100</v>
       </c>
       <c r="J38" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="3:11">
       <c r="C39" s="1">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D39" s="4">
-        <v>180009</v>
+        <v>180006</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F39" s="1">
-        <v>3000</v>
+        <v>50000</v>
       </c>
       <c r="G39" s="1">
         <v>1</v>
@@ -2302,24 +2369,24 @@
         <v>100</v>
       </c>
       <c r="J39" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="3:11">
       <c r="C40" s="1">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D40" s="4">
-        <v>180010</v>
+        <v>180007</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F40" s="1">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G40" s="1">
         <v>1</v>
@@ -2334,21 +2401,21 @@
         <v>1</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="3:11">
       <c r="C41" s="1">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D41" s="4">
-        <v>180011</v>
+        <v>180008</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F41" s="1">
-        <v>100000</v>
+        <v>20000</v>
       </c>
       <c r="G41" s="1">
         <v>1</v>
@@ -2360,24 +2427,24 @@
         <v>100</v>
       </c>
       <c r="J41" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="3:11">
       <c r="C42" s="1">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D42" s="4">
-        <v>180012</v>
+        <v>180009</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F42" s="1">
-        <v>100000</v>
+        <v>3000</v>
       </c>
       <c r="G42" s="1">
         <v>1</v>
@@ -2389,24 +2456,24 @@
         <v>100</v>
       </c>
       <c r="J42" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="3:11">
       <c r="C43" s="1">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D43" s="4">
-        <v>180013</v>
+        <v>180010</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F43" s="1">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="G43" s="1">
         <v>1</v>
@@ -2421,18 +2488,18 @@
         <v>1</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="3:11">
       <c r="C44" s="1">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D44" s="4">
-        <v>180014</v>
+        <v>180011</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F44" s="1">
         <v>100000</v>
@@ -2450,18 +2517,18 @@
         <v>10</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="3:11">
       <c r="C45" s="1">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D45" s="4">
-        <v>180015</v>
+        <v>180012</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F45" s="1">
         <v>100000</v>
@@ -2479,21 +2546,21 @@
         <v>10</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="3:11">
       <c r="C46" s="1">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D46" s="4">
-        <v>180020</v>
+        <v>180013</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F46" s="1">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="G46" s="1">
         <v>1</v>
@@ -2508,21 +2575,21 @@
         <v>1</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="3:11">
       <c r="C47" s="1">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D47" s="4">
-        <v>180021</v>
+        <v>180014</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F47" s="1">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="G47" s="1">
         <v>1</v>
@@ -2534,145 +2601,232 @@
         <v>100</v>
       </c>
       <c r="J47" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="3:11">
+      <c r="C48" s="1">
+        <v>115</v>
+      </c>
+      <c r="D48" s="4">
+        <v>180015</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F48" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I48" s="1">
+        <v>100</v>
+      </c>
+      <c r="J48" s="1">
+        <v>10</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="3:11">
       <c r="C49" s="1">
+        <v>120</v>
+      </c>
+      <c r="D49" s="4">
+        <v>180020</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F49" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1</v>
+      </c>
+      <c r="H49" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I49" s="1">
+        <v>100</v>
+      </c>
+      <c r="J49" s="1">
+        <v>1</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="3:11">
+      <c r="C50" s="1">
+        <v>121</v>
+      </c>
+      <c r="D50" s="4">
+        <v>180021</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F50" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1</v>
+      </c>
+      <c r="H50" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I50" s="1">
+        <v>100</v>
+      </c>
+      <c r="J50" s="1">
+        <v>1</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="3:11">
+      <c r="C52" s="1">
         <v>130</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D52" s="1">
         <v>180030</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F49" s="1">
-        <v>1</v>
-      </c>
-      <c r="G49" s="1">
+      <c r="E52" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1</v>
+      </c>
+      <c r="G52" s="1">
         <v>1001</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H52" s="1">
         <v>2000</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I52" s="1">
         <v>10</v>
       </c>
-      <c r="J49" s="1">
-        <v>1</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" customHeight="1" spans="1:11">
-      <c r="A50" s="1" t="s">
+      <c r="J52" s="1">
+        <v>1</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:11">
+      <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C53" s="1">
         <v>131</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D53" s="1">
         <v>180031</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F50" s="1">
-        <v>1</v>
-      </c>
-      <c r="G50" s="1">
+      <c r="E53" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F53" s="1">
+        <v>1</v>
+      </c>
+      <c r="G53" s="1">
         <v>1001</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H53" s="1">
         <v>2000</v>
       </c>
-      <c r="I50" s="1">
+      <c r="I53" s="1">
         <v>10</v>
       </c>
-      <c r="J50" s="1">
-        <v>1</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="53" customHeight="1" spans="3:11">
-      <c r="C53" s="1">
+      <c r="J53" s="1">
+        <v>1</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="3:11">
+      <c r="C56" s="1">
         <v>201</v>
       </c>
-      <c r="D53" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F53" s="1">
+      <c r="D56" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F56" s="1">
         <v>5</v>
       </c>
-      <c r="G53" s="1">
+      <c r="G56" s="1">
         <v>150</v>
       </c>
-      <c r="H53" s="1">
+      <c r="H56" s="1">
         <v>10000</v>
       </c>
-      <c r="I53" s="1">
+      <c r="I56" s="1">
         <v>20</v>
       </c>
-      <c r="J53" s="1">
+      <c r="J56" s="1">
         <v>2</v>
       </c>
-      <c r="K53" s="1" t="s">
+      <c r="K56" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="54" customHeight="1" spans="3:11">
-      <c r="C54" s="1">
+    <row r="57" customHeight="1" spans="3:11">
+      <c r="C57" s="1">
         <v>202</v>
       </c>
-      <c r="D54" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F54" s="1">
+      <c r="D57" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F57" s="1">
         <v>5</v>
       </c>
-      <c r="G54" s="1">
+      <c r="G57" s="1">
         <v>200</v>
       </c>
-      <c r="H54" s="1">
+      <c r="H57" s="1">
         <v>10000</v>
       </c>
-      <c r="I54" s="1">
+      <c r="I57" s="1">
         <v>30</v>
       </c>
-      <c r="J54" s="1">
+      <c r="J57" s="1">
         <v>2</v>
       </c>
-      <c r="K54" s="1" t="s">
+      <c r="K57" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="55" customHeight="1" spans="4:4">
-      <c r="D55" s="4"/>
-    </row>
-    <row r="56" customHeight="1" spans="4:4">
-      <c r="D56" s="4"/>
-    </row>
-    <row r="57" customHeight="1" spans="4:4">
-      <c r="D57" s="4"/>
     </row>
     <row r="58" customHeight="1" spans="4:4">
       <c r="D58" s="4"/>
+    </row>
+    <row r="59" customHeight="1" spans="4:4">
+      <c r="D59" s="4"/>
+    </row>
+    <row r="60" customHeight="1" spans="4:4">
+      <c r="D60" s="4"/>
+    </row>
+    <row r="61" customHeight="1" spans="4:4">
+      <c r="D61" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/InfiniteDropConfig.xlsx
+++ b/Excel/InfiniteDropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -1306,8 +1306,8 @@
   <sheetPr/>
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="N56" sqref="N56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2714,7 +2714,7 @@
         <v>2000</v>
       </c>
       <c r="I52" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J52" s="1">
         <v>1</v>

--- a/Excel/InfiniteDropConfig.xlsx
+++ b/Excel/InfiniteDropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="88">
   <si>
     <t>#</t>
   </si>
@@ -319,6 +319,12 @@
   </si>
   <si>
     <t>神技</t>
+  </si>
+  <si>
+    <t>4002</t>
+  </si>
+  <si>
+    <t>魂骨</t>
   </si>
 </sst>
 </file>
@@ -521,12 +527,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -851,7 +863,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -875,16 +887,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -893,96 +905,99 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
@@ -1306,8 +1321,8 @@
   <sheetPr/>
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="N56" sqref="N56"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1338,138 +1353,138 @@
       </c>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5" t="s">
+    <row r="6" s="2" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>100</v>
       </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
         <v>10000</v>
       </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
         <v>500</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C7" s="1">
+    <row r="7" s="2" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C7" s="2">
         <v>2</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>10</v>
       </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
         <v>10000</v>
       </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1">
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
         <v>50</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1477,7 +1492,7 @@
       <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1506,7 +1521,7 @@
       <c r="C9" s="1">
         <v>4</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -1535,7 +1550,7 @@
       <c r="C10" s="1">
         <v>5</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -1564,7 +1579,7 @@
       <c r="C11" s="1">
         <v>6</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -1593,7 +1608,7 @@
       <c r="C12" s="1">
         <v>7</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -1680,7 +1695,7 @@
       <c r="C15" s="1">
         <v>10</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="8" t="s">
         <v>31</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -1705,32 +1720,32 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="3:11">
-      <c r="C16" s="1">
+    <row r="16" s="2" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C16" s="2">
         <v>11</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="2">
         <v>10</v>
       </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1">
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
         <v>10000</v>
       </c>
-      <c r="I16" s="1">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1">
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
         <v>50</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K16" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1738,7 +1753,7 @@
       <c r="C17" s="1">
         <v>12</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="8" t="s">
         <v>36</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -1763,61 +1778,61 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="3:11">
-      <c r="C18" s="1">
+    <row r="18" s="2" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C18" s="2">
         <v>13</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="2">
         <v>12</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="2">
         <v>300</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="2">
         <v>10000</v>
       </c>
-      <c r="I18" s="1">
-        <v>1</v>
-      </c>
-      <c r="J18" s="1">
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2">
         <v>25</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C19" s="1">
+    <row r="19" s="2" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C19" s="2">
         <v>14</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1">
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
         <v>100</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="2">
         <v>10000</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="2">
         <v>3</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="2">
         <v>2</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K19" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1825,7 +1840,7 @@
       <c r="C20" s="1">
         <v>15</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="8" t="s">
         <v>45</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -1854,7 +1869,7 @@
       <c r="C21" s="1">
         <v>16</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="8" t="s">
         <v>47</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -1883,7 +1898,7 @@
       <c r="C22" s="1">
         <v>17</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="8" t="s">
         <v>50</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -1912,7 +1927,7 @@
       <c r="C23" s="1">
         <v>18</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="8" t="s">
         <v>51</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -1941,7 +1956,7 @@
       <c r="C24" s="1">
         <v>19</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="8" t="s">
         <v>52</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -1970,7 +1985,7 @@
       <c r="C25" s="1">
         <v>20</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -1999,7 +2014,7 @@
       <c r="C26" s="1">
         <v>21</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="8" t="s">
         <v>54</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -2028,7 +2043,7 @@
       <c r="C27" s="1">
         <v>22</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="8" t="s">
         <v>55</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -2057,7 +2072,7 @@
       <c r="C28" s="1">
         <v>23</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="8" t="s">
         <v>56</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -2086,7 +2101,7 @@
       <c r="C29" s="1">
         <v>24</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="8" t="s">
         <v>57</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -2115,7 +2130,7 @@
       <c r="C30" s="1">
         <v>25</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="8" t="s">
         <v>58</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -2144,7 +2159,7 @@
       <c r="C31" s="1">
         <v>26</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="8" t="s">
         <v>59</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -2173,7 +2188,7 @@
       <c r="C32" s="1">
         <v>27</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="8" t="s">
         <v>60</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -2199,13 +2214,13 @@
       </c>
     </row>
     <row r="33" customHeight="1" spans="4:4">
-      <c r="D33" s="3"/>
+      <c r="D33" s="5"/>
     </row>
     <row r="34" customHeight="1" spans="3:11">
       <c r="C34" s="1">
         <v>101</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="6">
         <v>180001</v>
       </c>
       <c r="E34" s="1" t="s">
@@ -2234,7 +2249,7 @@
       <c r="C35" s="1">
         <v>102</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="6">
         <v>180002</v>
       </c>
       <c r="E35" s="1" t="s">
@@ -2263,7 +2278,7 @@
       <c r="C36" s="1">
         <v>103</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="6">
         <v>180003</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -2292,7 +2307,7 @@
       <c r="C37" s="1">
         <v>104</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="6">
         <v>180004</v>
       </c>
       <c r="E37" s="1" t="s">
@@ -2321,7 +2336,7 @@
       <c r="C38" s="1">
         <v>105</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="6">
         <v>180005</v>
       </c>
       <c r="E38" s="1" t="s">
@@ -2350,7 +2365,7 @@
       <c r="C39" s="1">
         <v>106</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="6">
         <v>180006</v>
       </c>
       <c r="E39" s="1" t="s">
@@ -2379,7 +2394,7 @@
       <c r="C40" s="1">
         <v>107</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="6">
         <v>180007</v>
       </c>
       <c r="E40" s="1" t="s">
@@ -2408,7 +2423,7 @@
       <c r="C41" s="1">
         <v>108</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="6">
         <v>180008</v>
       </c>
       <c r="E41" s="1" t="s">
@@ -2437,7 +2452,7 @@
       <c r="C42" s="1">
         <v>109</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="6">
         <v>180009</v>
       </c>
       <c r="E42" s="1" t="s">
@@ -2466,7 +2481,7 @@
       <c r="C43" s="1">
         <v>110</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="6">
         <v>180010</v>
       </c>
       <c r="E43" s="1" t="s">
@@ -2495,7 +2510,7 @@
       <c r="C44" s="1">
         <v>111</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="6">
         <v>180011</v>
       </c>
       <c r="E44" s="1" t="s">
@@ -2524,7 +2539,7 @@
       <c r="C45" s="1">
         <v>112</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="6">
         <v>180012</v>
       </c>
       <c r="E45" s="1" t="s">
@@ -2553,7 +2568,7 @@
       <c r="C46" s="1">
         <v>113</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="6">
         <v>180013</v>
       </c>
       <c r="E46" s="1" t="s">
@@ -2582,7 +2597,7 @@
       <c r="C47" s="1">
         <v>114</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="6">
         <v>180014</v>
       </c>
       <c r="E47" s="1" t="s">
@@ -2611,7 +2626,7 @@
       <c r="C48" s="1">
         <v>115</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="6">
         <v>180015</v>
       </c>
       <c r="E48" s="1" t="s">
@@ -2640,7 +2655,7 @@
       <c r="C49" s="1">
         <v>120</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="6">
         <v>180020</v>
       </c>
       <c r="E49" s="1" t="s">
@@ -2669,7 +2684,7 @@
       <c r="C50" s="1">
         <v>121</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="6">
         <v>180021</v>
       </c>
       <c r="E50" s="1" t="s">
@@ -2762,7 +2777,7 @@
       <c r="C56" s="1">
         <v>201</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="8" t="s">
         <v>82</v>
       </c>
       <c r="E56" s="1" t="s">
@@ -2775,7 +2790,7 @@
         <v>150</v>
       </c>
       <c r="H56" s="1">
-        <v>10000</v>
+        <v>1200</v>
       </c>
       <c r="I56" s="1">
         <v>20</v>
@@ -2791,7 +2806,7 @@
       <c r="C57" s="1">
         <v>202</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E57" s="1" t="s">
@@ -2804,7 +2819,7 @@
         <v>200</v>
       </c>
       <c r="H57" s="1">
-        <v>10000</v>
+        <v>1200</v>
       </c>
       <c r="I57" s="1">
         <v>30</v>
@@ -2816,17 +2831,43 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" customHeight="1" spans="4:4">
-      <c r="D58" s="4"/>
+    <row r="58" customHeight="1" spans="3:11">
+      <c r="C58" s="1">
+        <v>203</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F58" s="1">
+        <v>10</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1001</v>
+      </c>
+      <c r="H58" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I58" s="1">
+        <v>50</v>
+      </c>
+      <c r="J58" s="1">
+        <v>5</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="59" customHeight="1" spans="4:4">
-      <c r="D59" s="4"/>
+      <c r="D59" s="6"/>
     </row>
     <row r="60" customHeight="1" spans="4:4">
-      <c r="D60" s="4"/>
+      <c r="D60" s="6"/>
     </row>
     <row r="61" customHeight="1" spans="4:4">
-      <c r="D61" s="4"/>
+      <c r="D61" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/InfiniteDropConfig.xlsx
+++ b/Excel/InfiniteDropConfig.xlsx
@@ -1321,8 +1321,8 @@
   <sheetPr/>
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2764,7 +2764,7 @@
         <v>2000</v>
       </c>
       <c r="I53" s="1">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="J53" s="1">
         <v>1</v>

--- a/Excel/InfiniteDropConfig.xlsx
+++ b/Excel/InfiniteDropConfig.xlsx
@@ -1321,8 +1321,8 @@
   <sheetPr/>
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2842,7 +2842,7 @@
         <v>87</v>
       </c>
       <c r="F58" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G58" s="1">
         <v>1001</v>

--- a/Excel/InfiniteDropConfig.xlsx
+++ b/Excel/InfiniteDropConfig.xlsx
@@ -1321,8 +1321,8 @@
   <sheetPr/>
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2720,13 +2720,13 @@
         <v>79</v>
       </c>
       <c r="F52" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G52" s="1">
         <v>1001</v>
       </c>
       <c r="H52" s="1">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="I52" s="1">
         <v>100</v>
@@ -2758,13 +2758,13 @@
         <v>1</v>
       </c>
       <c r="G53" s="1">
-        <v>1001</v>
+        <v>1501</v>
       </c>
       <c r="H53" s="1">
         <v>2000</v>
       </c>
       <c r="I53" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J53" s="1">
         <v>1</v>
@@ -2842,7 +2842,7 @@
         <v>87</v>
       </c>
       <c r="F58" s="1">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G58" s="1">
         <v>1001</v>
@@ -2851,7 +2851,7 @@
         <v>2000</v>
       </c>
       <c r="I58" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J58" s="1">
         <v>5</v>

--- a/Excel/InfiniteDropConfig.xlsx
+++ b/Excel/InfiniteDropConfig.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="88">
   <si>
     <t>#</t>
   </si>
@@ -1319,10 +1319,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2213,108 +2213,108 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="4:4">
-      <c r="D33" s="5"/>
+    <row r="33" customHeight="1" spans="3:11">
+      <c r="C33" s="1">
+        <v>28</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="1">
+        <v>20</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1050</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1050</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="34" customHeight="1" spans="3:11">
       <c r="C34" s="1">
-        <v>101</v>
-      </c>
-      <c r="D34" s="6">
-        <v>180001</v>
+        <v>29</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="F34" s="1">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="G34" s="1">
-        <v>1</v>
+        <v>1150</v>
       </c>
       <c r="H34" s="1">
-        <v>1000</v>
+        <v>1150</v>
       </c>
       <c r="I34" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J34" s="1">
         <v>1</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="3:11">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C35" s="1">
-        <v>102</v>
-      </c>
-      <c r="D35" s="6">
-        <v>180002</v>
+        <v>30</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="F35" s="1">
-        <v>4000</v>
+        <v>20</v>
       </c>
       <c r="G35" s="1">
-        <v>1</v>
+        <v>1250</v>
       </c>
       <c r="H35" s="1">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="I35" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J35" s="1">
         <v>1</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="3:11">
-      <c r="C36" s="1">
-        <v>103</v>
-      </c>
-      <c r="D36" s="6">
-        <v>180003</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F36" s="1">
-        <v>150000</v>
-      </c>
-      <c r="G36" s="1">
-        <v>1</v>
-      </c>
-      <c r="H36" s="1">
-        <v>1000</v>
-      </c>
-      <c r="I36" s="1">
-        <v>100</v>
-      </c>
-      <c r="J36" s="1">
-        <v>10</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>62</v>
-      </c>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="4:4">
+      <c r="D36" s="5"/>
     </row>
     <row r="37" customHeight="1" spans="3:11">
       <c r="C37" s="1">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D37" s="6">
-        <v>180004</v>
+        <v>180001</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F37" s="1">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="G37" s="1">
         <v>1</v>
@@ -2334,16 +2334,16 @@
     </row>
     <row r="38" customHeight="1" spans="3:11">
       <c r="C38" s="1">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D38" s="6">
-        <v>180005</v>
+        <v>180002</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F38" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="G38" s="1">
         <v>1</v>
@@ -2363,16 +2363,16 @@
     </row>
     <row r="39" customHeight="1" spans="3:11">
       <c r="C39" s="1">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D39" s="6">
-        <v>180006</v>
+        <v>180003</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F39" s="1">
-        <v>50000</v>
+        <v>150000</v>
       </c>
       <c r="G39" s="1">
         <v>1</v>
@@ -2392,16 +2392,16 @@
     </row>
     <row r="40" customHeight="1" spans="3:11">
       <c r="C40" s="1">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D40" s="6">
-        <v>180007</v>
+        <v>180004</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F40" s="1">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="G40" s="1">
         <v>1</v>
@@ -2421,16 +2421,16 @@
     </row>
     <row r="41" customHeight="1" spans="3:11">
       <c r="C41" s="1">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D41" s="6">
-        <v>180008</v>
+        <v>180005</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F41" s="1">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="G41" s="1">
         <v>1</v>
@@ -2442,7 +2442,7 @@
         <v>100</v>
       </c>
       <c r="J41" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>62</v>
@@ -2450,16 +2450,16 @@
     </row>
     <row r="42" customHeight="1" spans="3:11">
       <c r="C42" s="1">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D42" s="6">
-        <v>180009</v>
+        <v>180006</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F42" s="1">
-        <v>3000</v>
+        <v>50000</v>
       </c>
       <c r="G42" s="1">
         <v>1</v>
@@ -2471,7 +2471,7 @@
         <v>100</v>
       </c>
       <c r="J42" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>62</v>
@@ -2479,16 +2479,16 @@
     </row>
     <row r="43" customHeight="1" spans="3:11">
       <c r="C43" s="1">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D43" s="6">
-        <v>180010</v>
+        <v>180007</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F43" s="1">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G43" s="1">
         <v>1</v>
@@ -2508,16 +2508,16 @@
     </row>
     <row r="44" customHeight="1" spans="3:11">
       <c r="C44" s="1">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D44" s="6">
-        <v>180011</v>
+        <v>180008</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F44" s="1">
-        <v>100000</v>
+        <v>20000</v>
       </c>
       <c r="G44" s="1">
         <v>1</v>
@@ -2529,7 +2529,7 @@
         <v>100</v>
       </c>
       <c r="J44" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>62</v>
@@ -2537,16 +2537,16 @@
     </row>
     <row r="45" customHeight="1" spans="3:11">
       <c r="C45" s="1">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D45" s="6">
-        <v>180012</v>
+        <v>180009</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F45" s="1">
-        <v>100000</v>
+        <v>3000</v>
       </c>
       <c r="G45" s="1">
         <v>1</v>
@@ -2558,7 +2558,7 @@
         <v>100</v>
       </c>
       <c r="J45" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>62</v>
@@ -2566,16 +2566,16 @@
     </row>
     <row r="46" customHeight="1" spans="3:11">
       <c r="C46" s="1">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D46" s="6">
-        <v>180013</v>
+        <v>180010</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F46" s="1">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="G46" s="1">
         <v>1</v>
@@ -2595,13 +2595,13 @@
     </row>
     <row r="47" customHeight="1" spans="3:11">
       <c r="C47" s="1">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D47" s="6">
-        <v>180014</v>
+        <v>180011</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F47" s="1">
         <v>100000</v>
@@ -2624,13 +2624,13 @@
     </row>
     <row r="48" customHeight="1" spans="3:11">
       <c r="C48" s="1">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D48" s="6">
-        <v>180015</v>
+        <v>180012</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F48" s="1">
         <v>100000</v>
@@ -2653,16 +2653,16 @@
     </row>
     <row r="49" customHeight="1" spans="3:11">
       <c r="C49" s="1">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D49" s="6">
-        <v>180020</v>
+        <v>180013</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F49" s="1">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="G49" s="1">
         <v>1</v>
@@ -2682,16 +2682,16 @@
     </row>
     <row r="50" customHeight="1" spans="3:11">
       <c r="C50" s="1">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D50" s="6">
-        <v>180021</v>
+        <v>180014</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F50" s="1">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="G50" s="1">
         <v>1</v>
@@ -2703,30 +2703,59 @@
         <v>100</v>
       </c>
       <c r="J50" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>62</v>
       </c>
     </row>
+    <row r="51" customHeight="1" spans="3:11">
+      <c r="C51" s="1">
+        <v>115</v>
+      </c>
+      <c r="D51" s="6">
+        <v>180015</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F51" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1</v>
+      </c>
+      <c r="H51" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I51" s="1">
+        <v>100</v>
+      </c>
+      <c r="J51" s="1">
+        <v>10</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
     <row r="52" customHeight="1" spans="3:11">
       <c r="C52" s="1">
-        <v>130</v>
-      </c>
-      <c r="D52" s="1">
-        <v>180030</v>
+        <v>120</v>
+      </c>
+      <c r="D52" s="6">
+        <v>180020</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F52" s="1">
-        <v>20</v>
+        <v>10000</v>
       </c>
       <c r="G52" s="1">
-        <v>1001</v>
+        <v>1</v>
       </c>
       <c r="H52" s="1">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="I52" s="1">
         <v>100</v>
@@ -2735,33 +2764,27 @@
         <v>1</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" customHeight="1" spans="1:11">
-      <c r="A53" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>0</v>
-      </c>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="3:11">
       <c r="C53" s="1">
-        <v>131</v>
-      </c>
-      <c r="D53" s="1">
-        <v>180031</v>
+        <v>121</v>
+      </c>
+      <c r="D53" s="6">
+        <v>180021</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F53" s="1">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="G53" s="1">
-        <v>1501</v>
+        <v>1</v>
       </c>
       <c r="H53" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="I53" s="1">
         <v>100</v>
@@ -2770,104 +2793,168 @@
         <v>1</v>
       </c>
       <c r="K53" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="3:11">
+      <c r="C55" s="1">
+        <v>130</v>
+      </c>
+      <c r="D55" s="1">
+        <v>180030</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F55" s="1">
+        <v>20</v>
+      </c>
+      <c r="G55" s="1">
+        <v>1001</v>
+      </c>
+      <c r="H55" s="1">
+        <v>1500</v>
+      </c>
+      <c r="I55" s="1">
+        <v>100</v>
+      </c>
+      <c r="J55" s="1">
+        <v>1</v>
+      </c>
+      <c r="K55" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="56" customHeight="1" spans="3:11">
+    <row r="56" customHeight="1" spans="1:11">
+      <c r="A56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C56" s="1">
+        <v>131</v>
+      </c>
+      <c r="D56" s="1">
+        <v>180031</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F56" s="1">
+        <v>1</v>
+      </c>
+      <c r="G56" s="1">
+        <v>1501</v>
+      </c>
+      <c r="H56" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I56" s="1">
+        <v>100</v>
+      </c>
+      <c r="J56" s="1">
+        <v>1</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="3:11">
+      <c r="C59" s="1">
         <v>201</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D59" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F59" s="1">
         <v>5</v>
       </c>
-      <c r="G56" s="1">
+      <c r="G59" s="1">
         <v>150</v>
       </c>
-      <c r="H56" s="1">
+      <c r="H59" s="1">
         <v>1200</v>
       </c>
-      <c r="I56" s="1">
+      <c r="I59" s="1">
         <v>20</v>
       </c>
-      <c r="J56" s="1">
+      <c r="J59" s="1">
         <v>2</v>
       </c>
-      <c r="K56" s="1" t="s">
+      <c r="K59" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="57" customHeight="1" spans="3:11">
-      <c r="C57" s="1">
+    <row r="60" customHeight="1" spans="3:11">
+      <c r="C60" s="1">
         <v>202</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D60" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F60" s="1">
         <v>5</v>
       </c>
-      <c r="G57" s="1">
+      <c r="G60" s="1">
         <v>200</v>
       </c>
-      <c r="H57" s="1">
+      <c r="H60" s="1">
         <v>1200</v>
       </c>
-      <c r="I57" s="1">
+      <c r="I60" s="1">
         <v>30</v>
       </c>
-      <c r="J57" s="1">
+      <c r="J60" s="1">
         <v>2</v>
       </c>
-      <c r="K57" s="1" t="s">
+      <c r="K60" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="58" customHeight="1" spans="3:11">
-      <c r="C58" s="1">
+    <row r="61" customHeight="1" spans="3:11">
+      <c r="C61" s="1">
         <v>203</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D61" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F61" s="1">
         <v>100</v>
       </c>
-      <c r="G58" s="1">
+      <c r="G61" s="1">
         <v>1001</v>
       </c>
-      <c r="H58" s="1">
+      <c r="H61" s="1">
         <v>2000</v>
       </c>
-      <c r="I58" s="1">
+      <c r="I61" s="1">
         <v>51</v>
       </c>
-      <c r="J58" s="1">
+      <c r="J61" s="1">
         <v>5</v>
       </c>
-      <c r="K58" s="1" t="s">
+      <c r="K61" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="59" customHeight="1" spans="4:4">
-      <c r="D59" s="6"/>
-    </row>
-    <row r="60" customHeight="1" spans="4:4">
-      <c r="D60" s="6"/>
-    </row>
-    <row r="61" customHeight="1" spans="4:4">
-      <c r="D61" s="6"/>
+    <row r="62" customHeight="1" spans="4:4">
+      <c r="D62" s="6"/>
+    </row>
+    <row r="63" customHeight="1" spans="4:4">
+      <c r="D63" s="6"/>
+    </row>
+    <row r="64" customHeight="1" spans="4:4">
+      <c r="D64" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/InfiniteDropConfig.xlsx
+++ b/Excel/InfiniteDropConfig.xlsx
@@ -1321,8 +1321,8 @@
   <sheetPr/>
   <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2929,7 +2929,7 @@
         <v>87</v>
       </c>
       <c r="F61" s="1">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G61" s="1">
         <v>1001</v>

--- a/Excel/InfiniteDropConfig.xlsx
+++ b/Excel/InfiniteDropConfig.xlsx
@@ -516,12 +516,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1321,7 +1321,7 @@
   <sheetPr/>
   <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
@@ -2807,7 +2807,7 @@
         <v>79</v>
       </c>
       <c r="F55" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G55" s="1">
         <v>1001</v>
@@ -2929,7 +2929,7 @@
         <v>87</v>
       </c>
       <c r="F61" s="1">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G61" s="1">
         <v>1001</v>

--- a/Excel/InfiniteDropConfig.xlsx
+++ b/Excel/InfiniteDropConfig.xlsx
@@ -1322,7 +1322,7 @@
   <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2807,7 +2807,7 @@
         <v>79</v>
       </c>
       <c r="F55" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G55" s="1">
         <v>1001</v>
@@ -2929,7 +2929,7 @@
         <v>87</v>
       </c>
       <c r="F61" s="1">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G61" s="1">
         <v>1001</v>
@@ -2941,7 +2941,7 @@
         <v>51</v>
       </c>
       <c r="J61" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>44</v>

--- a/Excel/InfiniteDropConfig.xlsx
+++ b/Excel/InfiniteDropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -1322,7 +1322,7 @@
   <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2941,7 +2941,7 @@
         <v>51</v>
       </c>
       <c r="J61" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>44</v>

--- a/Excel/InfiniteDropConfig.xlsx
+++ b/Excel/InfiniteDropConfig.xlsx
@@ -516,12 +516,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1322,7 +1322,7 @@
   <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2929,7 +2929,7 @@
         <v>87</v>
       </c>
       <c r="F61" s="1">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G61" s="1">
         <v>1001</v>
@@ -2941,7 +2941,7 @@
         <v>51</v>
       </c>
       <c r="J61" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>44</v>

--- a/Excel/InfiniteDropConfig.xlsx
+++ b/Excel/InfiniteDropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -1322,7 +1322,7 @@
   <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2807,7 +2807,7 @@
         <v>79</v>
       </c>
       <c r="F55" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G55" s="1">
         <v>1001</v>

--- a/Excel/InfiniteDropConfig.xlsx
+++ b/Excel/InfiniteDropConfig.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="94">
   <si>
     <t>#</t>
   </si>
@@ -244,6 +244,24 @@
   </si>
   <si>
     <t>220028</t>
+  </si>
+  <si>
+    <t>220029</t>
+  </si>
+  <si>
+    <t>战士之魂</t>
+  </si>
+  <si>
+    <t>220030</t>
+  </si>
+  <si>
+    <t>法师之魂</t>
+  </si>
+  <si>
+    <t>220031</t>
+  </si>
+  <si>
+    <t>道士之魂</t>
   </si>
   <si>
     <t>BOSS杀手</t>
@@ -1321,8 +1339,8 @@
   <sheetPr/>
   <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2218,19 +2236,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="F33" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G33" s="1">
-        <v>1050</v>
+        <v>1250</v>
       </c>
       <c r="H33" s="1">
-        <v>1050</v>
+        <v>1250</v>
       </c>
       <c r="I33" s="1">
         <v>1</v>
@@ -2247,19 +2265,19 @@
         <v>29</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="F34" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G34" s="1">
-        <v>1150</v>
+        <v>1350</v>
       </c>
       <c r="H34" s="1">
-        <v>1150</v>
+        <v>1350</v>
       </c>
       <c r="I34" s="1">
         <v>1</v>
@@ -2276,19 +2294,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="F35" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G35" s="1">
-        <v>1250</v>
+        <v>1450</v>
       </c>
       <c r="H35" s="1">
-        <v>1250</v>
+        <v>1450</v>
       </c>
       <c r="I35" s="1">
         <v>1</v>
@@ -2311,7 +2329,7 @@
         <v>180001</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F37" s="1">
         <v>2000</v>
@@ -2329,7 +2347,7 @@
         <v>1</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="3:11">
@@ -2340,7 +2358,7 @@
         <v>180002</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F38" s="1">
         <v>4000</v>
@@ -2358,7 +2376,7 @@
         <v>1</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="3:11">
@@ -2369,7 +2387,7 @@
         <v>180003</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F39" s="1">
         <v>150000</v>
@@ -2387,7 +2405,7 @@
         <v>10</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="3:11">
@@ -2398,7 +2416,7 @@
         <v>180004</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F40" s="1">
         <v>8000</v>
@@ -2416,7 +2434,7 @@
         <v>1</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="3:11">
@@ -2427,7 +2445,7 @@
         <v>180005</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F41" s="1">
         <v>3000</v>
@@ -2445,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="3:11">
@@ -2456,7 +2474,7 @@
         <v>180006</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F42" s="1">
         <v>50000</v>
@@ -2474,7 +2492,7 @@
         <v>10</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="3:11">
@@ -2485,7 +2503,7 @@
         <v>180007</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F43" s="1">
         <v>2000</v>
@@ -2503,7 +2521,7 @@
         <v>1</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="3:11">
@@ -2514,7 +2532,7 @@
         <v>180008</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F44" s="1">
         <v>20000</v>
@@ -2532,7 +2550,7 @@
         <v>2</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="3:11">
@@ -2543,7 +2561,7 @@
         <v>180009</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F45" s="1">
         <v>3000</v>
@@ -2561,7 +2579,7 @@
         <v>1</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="3:11">
@@ -2572,7 +2590,7 @@
         <v>180010</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F46" s="1">
         <v>10000</v>
@@ -2590,7 +2608,7 @@
         <v>1</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="3:11">
@@ -2601,7 +2619,7 @@
         <v>180011</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F47" s="1">
         <v>100000</v>
@@ -2619,7 +2637,7 @@
         <v>10</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="3:11">
@@ -2630,7 +2648,7 @@
         <v>180012</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F48" s="1">
         <v>100000</v>
@@ -2648,7 +2666,7 @@
         <v>10</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="3:11">
@@ -2659,7 +2677,7 @@
         <v>180013</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F49" s="1">
         <v>50000</v>
@@ -2677,7 +2695,7 @@
         <v>1</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="3:11">
@@ -2688,7 +2706,7 @@
         <v>180014</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F50" s="1">
         <v>100000</v>
@@ -2706,7 +2724,7 @@
         <v>10</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="3:11">
@@ -2717,7 +2735,7 @@
         <v>180015</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F51" s="1">
         <v>100000</v>
@@ -2735,7 +2753,7 @@
         <v>10</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="3:11">
@@ -2746,7 +2764,7 @@
         <v>180020</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F52" s="1">
         <v>10000</v>
@@ -2764,7 +2782,7 @@
         <v>1</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="3:11">
@@ -2775,7 +2793,7 @@
         <v>180021</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F53" s="1">
         <v>10000</v>
@@ -2793,7 +2811,7 @@
         <v>1</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="3:11">
@@ -2804,7 +2822,7 @@
         <v>180030</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F55" s="1">
         <v>10</v>
@@ -2822,7 +2840,7 @@
         <v>1</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:11">
@@ -2839,7 +2857,7 @@
         <v>180031</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F56" s="1">
         <v>1</v>
@@ -2857,7 +2875,7 @@
         <v>1</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="3:11">
@@ -2865,10 +2883,10 @@
         <v>201</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F59" s="1">
         <v>5</v>
@@ -2894,10 +2912,10 @@
         <v>202</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F60" s="1">
         <v>5</v>
@@ -2923,13 +2941,13 @@
         <v>203</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F61" s="1">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G61" s="1">
         <v>1001</v>

--- a/Excel/InfiniteDropConfig.xlsx
+++ b/Excel/InfiniteDropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -1339,8 +1339,8 @@
   <sheetPr/>
   <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="J63" sqref="J63"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2825,7 +2825,7 @@
         <v>85</v>
       </c>
       <c r="F55" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G55" s="1">
         <v>1001</v>
@@ -2924,7 +2924,7 @@
         <v>200</v>
       </c>
       <c r="H60" s="1">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="I60" s="1">
         <v>30</v>
@@ -2947,13 +2947,13 @@
         <v>93</v>
       </c>
       <c r="F61" s="1">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G61" s="1">
-        <v>1001</v>
+        <v>1050</v>
       </c>
       <c r="H61" s="1">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="I61" s="1">
         <v>51</v>

--- a/Excel/InfiniteDropConfig.xlsx
+++ b/Excel/InfiniteDropConfig.xlsx
@@ -1339,8 +1339,8 @@
   <sheetPr/>
   <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2825,7 +2825,7 @@
         <v>85</v>
       </c>
       <c r="F55" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G55" s="1">
         <v>1001</v>
@@ -2947,7 +2947,7 @@
         <v>93</v>
       </c>
       <c r="F61" s="1">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G61" s="1">
         <v>1050</v>
@@ -2959,7 +2959,7 @@
         <v>51</v>
       </c>
       <c r="J61" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>44</v>

--- a/Excel/InfiniteDropConfig.xlsx
+++ b/Excel/InfiniteDropConfig.xlsx
@@ -1340,7 +1340,7 @@
   <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2825,7 +2825,7 @@
         <v>85</v>
       </c>
       <c r="F55" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G55" s="1">
         <v>1001</v>
@@ -2947,7 +2947,7 @@
         <v>93</v>
       </c>
       <c r="F61" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G61" s="1">
         <v>1050</v>

--- a/Excel/InfiniteDropConfig.xlsx
+++ b/Excel/InfiniteDropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -1339,8 +1339,8 @@
   <sheetPr/>
   <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2959,7 +2959,7 @@
         <v>51</v>
       </c>
       <c r="J61" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>44</v>
